--- a/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
+++ b/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\b4d\projects\b4d_analytics\src\b4d_pbi_executive_dashboard\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DBA76F-B898-49FF-9439-38E527C36CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4FB21C-6E21-4D18-B012-1F18FF0C55FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="7110" windowWidth="18810" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1689,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X84" sqref="X84"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,6 +1698,9 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -2656,7 +2659,7 @@
         <v>62</v>
       </c>
       <c r="R17" s="1">
-        <v>45784</v>
+        <v>45777</v>
       </c>
       <c r="S17" s="1">
         <v>45807</v>

--- a/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
+++ b/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\b4d\projects\b4d_analytics\src\b4d_pbi_executive_dashboard\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4FB21C-6E21-4D18-B012-1F18FF0C55FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$96</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -850,7 +844,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1334,48 +1328,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,7 +1427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1485,7 +1479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1679,25 +1673,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -1783,40 +1778,34 @@
         <v>45808</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>70200.23</v>
-      </c>
-      <c r="H2">
-        <v>824770</v>
+        <v>1777</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O2">
         <v>90113131698</v>
@@ -1825,16 +1814,19 @@
         <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>135</v>
+      </c>
+      <c r="R2" s="1">
+        <v>45807</v>
+      </c>
+      <c r="S2" s="1">
+        <v>45814</v>
       </c>
       <c r="T2" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U2" s="1">
-        <v>45701</v>
+        <v>45814</v>
       </c>
       <c r="W2" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X2" s="2">
         <v>0</v>
@@ -1845,25 +1837,22 @@
         <v>45808</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>6200</v>
-      </c>
-      <c r="H3">
-        <v>6500</v>
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>1283400</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -1874,11 +1863,8 @@
       <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>266</v>
-      </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O3">
         <v>90113131698</v>
@@ -1887,19 +1873,22 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" s="1">
-        <v>45805</v>
+        <v>217</v>
+      </c>
+      <c r="R3" s="1">
+        <v>45807</v>
       </c>
       <c r="T3" s="1">
-        <v>45715</v>
+        <v>45813</v>
       </c>
       <c r="U3" s="1">
-        <v>45714</v>
+        <v>45838</v>
+      </c>
+      <c r="V3" s="1">
+        <v>45748</v>
       </c>
       <c r="W3" s="1">
-        <v>45717</v>
+        <v>45814</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
@@ -1910,10 +1899,10 @@
         <v>45808</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1922,22 +1911,28 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>50000</v>
+        <v>4135</v>
+      </c>
+      <c r="I4">
+        <v>4135</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
       </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O4">
         <v>90113131698</v>
@@ -1946,16 +1941,19 @@
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="1">
-        <v>45761</v>
+        <v>144</v>
+      </c>
+      <c r="R4" s="1">
+        <v>45807</v>
       </c>
       <c r="T4" s="1">
-        <v>45715</v>
+        <v>45716</v>
+      </c>
+      <c r="U4" s="1">
+        <v>45835</v>
       </c>
       <c r="W4" s="1">
-        <v>45769</v>
+        <v>45808</v>
       </c>
       <c r="X4" s="2">
         <v>0</v>
@@ -1966,28 +1964,40 @@
         <v>45808</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>22168.5</v>
       </c>
       <c r="H5">
-        <v>38700</v>
+        <v>99000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
       </c>
       <c r="O5">
         <v>90113131698</v>
@@ -1996,13 +2006,25 @@
         <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>130</v>
+        <v>62</v>
+      </c>
+      <c r="R5" s="1">
+        <v>45777</v>
+      </c>
+      <c r="S5" s="1">
+        <v>45807</v>
       </c>
       <c r="T5" s="1">
-        <v>45756</v>
+        <v>45672</v>
+      </c>
+      <c r="U5" s="1">
+        <v>45777</v>
+      </c>
+      <c r="V5" s="1">
+        <v>45686</v>
       </c>
       <c r="W5" s="1">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -2013,43 +2035,40 @@
         <v>45808</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>17000</v>
+        <v>2396.9499999999998</v>
       </c>
       <c r="H6">
-        <v>28000</v>
-      </c>
-      <c r="I6">
-        <v>5000</v>
+        <v>17974.900000000001</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O6">
         <v>90113131698</v>
@@ -2058,13 +2077,19 @@
         <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>153</v>
+        <v>76</v>
+      </c>
+      <c r="R6" s="1">
+        <v>45740</v>
       </c>
       <c r="T6" s="1">
-        <v>45807</v>
+        <v>45694</v>
+      </c>
+      <c r="U6" s="1">
+        <v>45701</v>
       </c>
       <c r="W6" s="1">
-        <v>45808</v>
+        <v>45717</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -2075,10 +2100,10 @@
         <v>45808</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -2087,13 +2112,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>13948</v>
-      </c>
-      <c r="H7">
-        <v>19500</v>
+        <v>1800</v>
+      </c>
+      <c r="I7">
+        <v>52076</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -2117,19 +2142,16 @@
         <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>153</v>
-      </c>
-      <c r="S7" s="1">
-        <v>45799</v>
+        <v>114</v>
+      </c>
+      <c r="R7" s="1">
+        <v>45740</v>
       </c>
       <c r="T7" s="1">
-        <v>45733</v>
-      </c>
-      <c r="U7" s="1">
-        <v>45775</v>
+        <v>45715</v>
       </c>
       <c r="W7" s="1">
-        <v>45772</v>
+        <v>45717</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -2140,37 +2162,40 @@
         <v>45808</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>1155</v>
+        <v>22781.85</v>
       </c>
       <c r="H8">
-        <v>17844</v>
+        <v>37618.769999999997</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
       </c>
       <c r="O8">
         <v>90113131698</v>
@@ -2179,16 +2204,19 @@
         <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>207</v>
+        <v>24</v>
+      </c>
+      <c r="R8" s="1">
+        <v>45740</v>
       </c>
       <c r="T8" s="1">
-        <v>45791</v>
+        <v>45662</v>
       </c>
       <c r="U8" s="1">
-        <v>45838</v>
+        <v>45594</v>
       </c>
       <c r="W8" s="1">
-        <v>45792</v>
+        <v>45717</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -2199,37 +2227,31 @@
         <v>45808</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>29811</v>
-      </c>
-      <c r="H9">
-        <v>66147.5</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
@@ -2241,19 +2263,19 @@
         <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="1">
-        <v>45869</v>
+        <v>76</v>
+      </c>
+      <c r="R9" s="1">
+        <v>45740</v>
       </c>
       <c r="T9" s="1">
-        <v>45672</v>
+        <v>45694</v>
       </c>
       <c r="U9" s="1">
-        <v>45845</v>
+        <v>45701</v>
       </c>
       <c r="W9" s="1">
-        <v>45749</v>
+        <v>45717</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -2264,22 +2286,34 @@
         <v>45808</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>15000</v>
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>7500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
       </c>
       <c r="O10">
         <v>90113131698</v>
@@ -2287,11 +2321,17 @@
       <c r="P10" t="s">
         <v>32</v>
       </c>
+      <c r="Q10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="1">
+        <v>45740</v>
+      </c>
       <c r="T10" s="1">
-        <v>45768</v>
+        <v>45712</v>
       </c>
       <c r="W10" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -2302,13 +2342,13 @@
         <v>45808</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
@@ -2317,19 +2357,25 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>25609</v>
+        <v>70200.23</v>
       </c>
       <c r="H11">
-        <v>75075</v>
+        <v>824770</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
       </c>
       <c r="O11">
         <v>90113131698</v>
@@ -2338,16 +2384,16 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>180</v>
-      </c>
-      <c r="S11" s="1">
-        <v>45869</v>
+        <v>76</v>
       </c>
       <c r="T11" s="1">
-        <v>45768</v>
+        <v>45694</v>
+      </c>
+      <c r="U11" s="1">
+        <v>45701</v>
       </c>
       <c r="W11" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2358,37 +2404,37 @@
         <v>45808</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>2000</v>
+        <v>6200</v>
       </c>
       <c r="H12">
-        <v>500</v>
+        <v>6500</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
@@ -2400,19 +2446,19 @@
         <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="S12" s="1">
+        <v>45805</v>
       </c>
       <c r="T12" s="1">
-        <v>45768</v>
+        <v>45715</v>
       </c>
       <c r="U12" s="1">
-        <v>45796</v>
-      </c>
-      <c r="V12" s="1">
-        <v>45796</v>
+        <v>45714</v>
       </c>
       <c r="W12" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -2423,37 +2469,52 @@
         <v>45808</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>50000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
       </c>
       <c r="M13" t="s">
         <v>69</v>
       </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
       <c r="O13">
         <v>90113131698</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
+      <c r="Q13" t="s">
+        <v>130</v>
+      </c>
+      <c r="S13" s="1">
+        <v>45761</v>
+      </c>
       <c r="T13" s="1">
-        <v>45757</v>
+        <v>45715</v>
       </c>
       <c r="W13" s="1">
-        <v>45758</v>
+        <v>45769</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -2464,25 +2525,22 @@
         <v>45808</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>38700</v>
       </c>
       <c r="L14" t="s">
         <v>30</v>
@@ -2490,9 +2548,6 @@
       <c r="M14" t="s">
         <v>69</v>
       </c>
-      <c r="N14" t="s">
-        <v>42</v>
-      </c>
       <c r="O14">
         <v>90113131698</v>
       </c>
@@ -2500,13 +2555,13 @@
         <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="T14" s="1">
-        <v>45701</v>
+        <v>45756</v>
       </c>
       <c r="W14" s="1">
-        <v>45717</v>
+        <v>45771</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -2517,28 +2572,43 @@
         <v>45808</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>17000</v>
       </c>
       <c r="H15">
-        <v>15000</v>
+        <v>28000</v>
+      </c>
+      <c r="I15">
+        <v>5000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O15">
         <v>90113131698</v>
@@ -2546,17 +2616,14 @@
       <c r="P15" t="s">
         <v>32</v>
       </c>
+      <c r="Q15" t="s">
+        <v>153</v>
+      </c>
       <c r="T15" s="1">
-        <v>45768</v>
-      </c>
-      <c r="U15" s="1">
-        <v>45796</v>
-      </c>
-      <c r="V15" s="1">
-        <v>45796</v>
+        <v>45807</v>
       </c>
       <c r="W15" s="1">
-        <v>45769</v>
+        <v>45808</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -2567,22 +2634,37 @@
         <v>45808</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>13948</v>
+      </c>
+      <c r="H16">
+        <v>19500</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
@@ -2593,17 +2675,20 @@
       <c r="P16" t="s">
         <v>32</v>
       </c>
+      <c r="Q16" t="s">
+        <v>153</v>
+      </c>
+      <c r="S16" s="1">
+        <v>45799</v>
+      </c>
       <c r="T16" s="1">
-        <v>45768</v>
+        <v>45733</v>
       </c>
       <c r="U16" s="1">
-        <v>45787</v>
-      </c>
-      <c r="V16" s="1">
-        <v>45768</v>
+        <v>45775</v>
       </c>
       <c r="W16" s="1">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -2614,40 +2699,37 @@
         <v>45808</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
         <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G17">
-        <v>22168.5</v>
+        <v>1155</v>
       </c>
       <c r="H17">
-        <v>99000</v>
+        <v>17844</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
         <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>266</v>
-      </c>
-      <c r="N17" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O17">
         <v>90113131698</v>
@@ -2656,25 +2738,16 @@
         <v>32</v>
       </c>
       <c r="Q17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="1">
-        <v>45777</v>
-      </c>
-      <c r="S17" s="1">
-        <v>45807</v>
+        <v>207</v>
       </c>
       <c r="T17" s="1">
-        <v>45672</v>
+        <v>45791</v>
       </c>
       <c r="U17" s="1">
-        <v>45777</v>
-      </c>
-      <c r="V17" s="1">
-        <v>45686</v>
+        <v>45838</v>
       </c>
       <c r="W17" s="1">
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -2685,19 +2758,40 @@
         <v>45808</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>29811</v>
+      </c>
+      <c r="H18">
+        <v>66147.5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>266</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
       </c>
       <c r="O18">
         <v>90113131698</v>
@@ -2705,14 +2799,20 @@
       <c r="P18" t="s">
         <v>32</v>
       </c>
+      <c r="Q18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="1">
+        <v>45869</v>
+      </c>
       <c r="T18" s="1">
-        <v>45790</v>
+        <v>45672</v>
       </c>
       <c r="U18" s="1">
-        <v>45796</v>
+        <v>45845</v>
       </c>
       <c r="W18" s="1">
-        <v>45791</v>
+        <v>45749</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -2723,22 +2823,19 @@
         <v>45808</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="G19">
-        <v>5000</v>
+      <c r="H19">
+        <v>15000</v>
       </c>
       <c r="M19" t="s">
         <v>69</v>
@@ -2752,12 +2849,6 @@
       <c r="T19" s="1">
         <v>45768</v>
       </c>
-      <c r="U19" s="1">
-        <v>45796</v>
-      </c>
-      <c r="V19" s="1">
-        <v>45796</v>
-      </c>
       <c r="W19" s="1">
         <v>45769</v>
       </c>
@@ -2770,10 +2861,10 @@
         <v>45808</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -2782,28 +2873,22 @@
         <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G20">
-        <v>4833</v>
+        <v>25609</v>
       </c>
       <c r="H20">
-        <v>5800</v>
+        <v>75075</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
-      <c r="K20" t="s">
-        <v>68</v>
-      </c>
       <c r="L20" t="s">
         <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O20">
         <v>90113131698</v>
@@ -2812,13 +2897,13 @@
         <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="S20" s="1">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="T20" s="1">
-        <v>45692</v>
+        <v>45768</v>
       </c>
       <c r="W20" s="1">
         <v>45815</v>
@@ -2832,13 +2917,13 @@
         <v>45808</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -2847,22 +2932,22 @@
         <v>45</v>
       </c>
       <c r="G21">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H21">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M21" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N21" t="s">
         <v>42</v>
@@ -2874,13 +2959,19 @@
         <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T21" s="1">
-        <v>45664</v>
+        <v>45768</v>
+      </c>
+      <c r="U21" s="1">
+        <v>45796</v>
+      </c>
+      <c r="V21" s="1">
+        <v>45796</v>
       </c>
       <c r="W21" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -2891,28 +2982,22 @@
         <v>45808</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22">
-        <v>100000</v>
-      </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
       </c>
       <c r="M22" t="s">
         <v>69</v>
@@ -2923,14 +3008,11 @@
       <c r="P22" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="1">
-        <v>45869</v>
-      </c>
       <c r="T22" s="1">
-        <v>45814</v>
+        <v>45757</v>
       </c>
       <c r="W22" s="1">
-        <v>45815</v>
+        <v>45758</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -2941,37 +3023,34 @@
         <v>45808</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>8000</v>
-      </c>
-      <c r="H23">
-        <v>15000</v>
-      </c>
-      <c r="I23">
-        <v>3000</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
       </c>
       <c r="L23" t="s">
         <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
       </c>
       <c r="O23">
         <v>90113131698</v>
@@ -2980,13 +3059,13 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="T23" s="1">
-        <v>45814</v>
+        <v>45701</v>
       </c>
       <c r="W23" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -2997,46 +3076,46 @@
         <v>45808</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24">
-        <v>2500</v>
-      </c>
-      <c r="J24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>15000</v>
       </c>
       <c r="M24" t="s">
         <v>69</v>
       </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
       <c r="O24">
         <v>90113131698</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
       </c>
-      <c r="S24" s="1">
-        <v>45869</v>
-      </c>
       <c r="T24" s="1">
-        <v>45814</v>
+        <v>45768</v>
+      </c>
+      <c r="U24" s="1">
+        <v>45796</v>
+      </c>
+      <c r="V24" s="1">
+        <v>45796</v>
       </c>
       <c r="W24" s="1">
-        <v>45815</v>
+        <v>45769</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3047,40 +3126,25 @@
         <v>45808</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>4558</v>
-      </c>
-      <c r="H25">
-        <v>353516</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
         <v>69</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O25">
         <v>90113131698</v>
@@ -3088,23 +3152,20 @@
       <c r="P25" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" t="s">
-        <v>88</v>
-      </c>
-      <c r="S25" s="1">
-        <v>45869</v>
-      </c>
       <c r="T25" s="1">
-        <v>45701</v>
+        <v>45768</v>
       </c>
       <c r="U25" s="1">
-        <v>45810</v>
+        <v>45787</v>
+      </c>
+      <c r="V25" s="1">
+        <v>45768</v>
       </c>
       <c r="W25" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -3112,49 +3173,34 @@
         <v>45808</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
       </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" t="s">
-        <v>266</v>
-      </c>
-      <c r="N26" t="s">
-        <v>42</v>
-      </c>
       <c r="O26">
         <v>90113131698</v>
       </c>
       <c r="P26" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" t="s">
-        <v>36</v>
-      </c>
       <c r="T26" s="1">
-        <v>45664</v>
+        <v>45790</v>
+      </c>
+      <c r="U26" s="1">
+        <v>45796</v>
       </c>
       <c r="W26" s="1">
-        <v>45717</v>
+        <v>45791</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
@@ -3165,28 +3211,22 @@
         <v>45808</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
-      <c r="J27" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" t="s">
-        <v>147</v>
+      <c r="G27">
+        <v>5000</v>
       </c>
       <c r="M27" t="s">
         <v>69</v>
@@ -3198,7 +3238,16 @@
         <v>32</v>
       </c>
       <c r="T27" s="1">
-        <v>45832</v>
+        <v>45768</v>
+      </c>
+      <c r="U27" s="1">
+        <v>45796</v>
+      </c>
+      <c r="V27" s="1">
+        <v>45796</v>
+      </c>
+      <c r="W27" s="1">
+        <v>45769</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -3209,34 +3258,34 @@
         <v>45808</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>2396.9499999999998</v>
+        <v>4833</v>
       </c>
       <c r="H28">
-        <v>17974.900000000001</v>
+        <v>5800</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K28" t="s">
         <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
         <v>69</v>
@@ -3251,19 +3300,16 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>76</v>
-      </c>
-      <c r="R28" s="1">
-        <v>45740</v>
+        <v>70</v>
+      </c>
+      <c r="S28" s="1">
+        <v>45900</v>
       </c>
       <c r="T28" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U28" s="1">
-        <v>45701</v>
+        <v>45692</v>
       </c>
       <c r="W28" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -3274,22 +3320,28 @@
         <v>45808</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>5000</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
       </c>
       <c r="J29" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s">
         <v>29</v>
@@ -3298,7 +3350,10 @@
         <v>30</v>
       </c>
       <c r="M29" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
       </c>
       <c r="O29">
         <v>90113131698</v>
@@ -3306,11 +3361,14 @@
       <c r="P29" t="s">
         <v>32</v>
       </c>
+      <c r="Q29" t="s">
+        <v>55</v>
+      </c>
       <c r="T29" s="1">
-        <v>45757</v>
+        <v>45664</v>
       </c>
       <c r="W29" s="1">
-        <v>45758</v>
+        <v>45749</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -3321,34 +3379,31 @@
         <v>45808</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="H30">
+        <v>100000</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
-      <c r="K30" t="s">
-        <v>29</v>
-      </c>
       <c r="L30" t="s">
         <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O30">
         <v>90113131698</v>
@@ -3356,17 +3411,14 @@
       <c r="P30" t="s">
         <v>32</v>
       </c>
-      <c r="Q30" t="s">
-        <v>64</v>
+      <c r="S30" s="1">
+        <v>45869</v>
       </c>
       <c r="T30" s="1">
-        <v>45692</v>
-      </c>
-      <c r="U30" s="1">
-        <v>45726</v>
+        <v>45814</v>
       </c>
       <c r="W30" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
@@ -3377,13 +3429,13 @@
         <v>45808</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>59</v>
@@ -3392,29 +3444,23 @@
         <v>45</v>
       </c>
       <c r="G31">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="H31">
-        <v>12300</v>
+        <v>15000</v>
       </c>
       <c r="I31">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
       </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
       <c r="L31" t="s">
         <v>30</v>
       </c>
       <c r="M31" t="s">
         <v>266</v>
       </c>
-      <c r="N31" t="s">
-        <v>42</v>
-      </c>
       <c r="O31">
         <v>90113131698</v>
       </c>
@@ -3422,16 +3468,13 @@
         <v>32</v>
       </c>
       <c r="Q31" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="T31" s="1">
-        <v>45712</v>
-      </c>
-      <c r="U31" s="1">
-        <v>45712</v>
+        <v>45814</v>
       </c>
       <c r="W31" s="1">
-        <v>45749</v>
+        <v>45815</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -3442,31 +3485,31 @@
         <v>45808</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="G32">
+        <v>2500</v>
       </c>
       <c r="J32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s">
         <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="O32">
         <v>90113131698</v>
@@ -3474,8 +3517,14 @@
       <c r="P32" t="s">
         <v>32</v>
       </c>
+      <c r="S32" s="1">
+        <v>45869</v>
+      </c>
       <c r="T32" s="1">
-        <v>45832</v>
+        <v>45814</v>
+      </c>
+      <c r="W32" s="1">
+        <v>45815</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
@@ -3486,25 +3535,25 @@
         <v>45808</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G33">
-        <v>7000</v>
+        <v>4558</v>
       </c>
       <c r="H33">
-        <v>7000</v>
+        <v>353516</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
@@ -3516,10 +3565,10 @@
         <v>30</v>
       </c>
       <c r="M33" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N33" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="O33">
         <v>90113131698</v>
@@ -3528,16 +3577,22 @@
         <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="S33" s="1">
+        <v>45869</v>
       </c>
       <c r="T33" s="1">
-        <v>45664</v>
+        <v>45701</v>
+      </c>
+      <c r="U33" s="1">
+        <v>45810</v>
       </c>
       <c r="W33" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -3545,23 +3600,20 @@
         <v>45808</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="G34">
-        <v>5000</v>
-      </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
@@ -3587,10 +3639,10 @@
         <v>36</v>
       </c>
       <c r="T34" s="1">
-        <v>45701</v>
+        <v>45664</v>
       </c>
       <c r="W34" s="1">
-        <v>45749</v>
+        <v>45717</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -3601,40 +3653,31 @@
         <v>45808</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35">
-        <v>13500</v>
-      </c>
-      <c r="H35">
-        <v>25000</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="M35" t="s">
-        <v>266</v>
-      </c>
-      <c r="N35" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O35">
         <v>90113131698</v>
@@ -3642,20 +3685,8 @@
       <c r="P35" t="s">
         <v>32</v>
       </c>
-      <c r="Q35" t="s">
-        <v>36</v>
-      </c>
       <c r="T35" s="1">
-        <v>45664</v>
-      </c>
-      <c r="U35" s="1">
-        <v>45747</v>
-      </c>
-      <c r="V35" s="1">
-        <v>45666</v>
-      </c>
-      <c r="W35" s="1">
-        <v>45717</v>
+        <v>45832</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
@@ -3666,28 +3697,22 @@
         <v>45808</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36">
-        <v>5000</v>
-      </c>
-      <c r="H36">
-        <v>10000</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s">
         <v>29</v>
@@ -3696,10 +3721,7 @@
         <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>266</v>
-      </c>
-      <c r="N36" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O36">
         <v>90113131698</v>
@@ -3707,14 +3729,11 @@
       <c r="P36" t="s">
         <v>32</v>
       </c>
-      <c r="Q36" t="s">
-        <v>46</v>
-      </c>
       <c r="T36" s="1">
-        <v>45664</v>
+        <v>45757</v>
       </c>
       <c r="W36" s="1">
-        <v>45717</v>
+        <v>45758</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -3725,10 +3744,10 @@
         <v>45808</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -3737,25 +3756,22 @@
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37">
-        <v>877000</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
       </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
       <c r="L37" t="s">
         <v>30</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>266</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
       </c>
       <c r="O37">
         <v>90113131698</v>
@@ -3764,13 +3780,16 @@
         <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="T37" s="1">
-        <v>45715</v>
+        <v>45692</v>
+      </c>
+      <c r="U37" s="1">
+        <v>45726</v>
       </c>
       <c r="W37" s="1">
-        <v>45772</v>
+        <v>45717</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
@@ -3781,25 +3800,28 @@
         <v>45808</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G38">
-        <v>1800</v>
+        <v>10000</v>
+      </c>
+      <c r="H38">
+        <v>12300</v>
       </c>
       <c r="I38">
-        <v>52076</v>
+        <v>2500</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -3823,16 +3845,16 @@
         <v>32</v>
       </c>
       <c r="Q38" t="s">
-        <v>114</v>
-      </c>
-      <c r="R38" s="1">
-        <v>45740</v>
+        <v>104</v>
       </c>
       <c r="T38" s="1">
-        <v>45715</v>
+        <v>45712</v>
+      </c>
+      <c r="U38" s="1">
+        <v>45712</v>
       </c>
       <c r="W38" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -3843,22 +3865,25 @@
         <v>45808</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>242</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s">
         <v>30</v>
@@ -3866,29 +3891,14 @@
       <c r="M39" t="s">
         <v>266</v>
       </c>
-      <c r="N39" t="s">
-        <v>42</v>
-      </c>
       <c r="O39">
         <v>90113131698</v>
       </c>
       <c r="P39" t="s">
         <v>32</v>
       </c>
-      <c r="Q39" t="s">
-        <v>217</v>
-      </c>
       <c r="T39" s="1">
-        <v>45813</v>
-      </c>
-      <c r="U39" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V39" s="1">
-        <v>45810</v>
-      </c>
-      <c r="W39" s="1">
-        <v>45814</v>
+        <v>45832</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -3899,22 +3909,25 @@
         <v>45808</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40">
-        <v>1328400</v>
+        <v>45</v>
+      </c>
+      <c r="G40">
+        <v>7000</v>
+      </c>
+      <c r="H40">
+        <v>7000</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -3929,7 +3942,7 @@
         <v>266</v>
       </c>
       <c r="N40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O40">
         <v>90113131698</v>
@@ -3938,22 +3951,13 @@
         <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>217</v>
-      </c>
-      <c r="S40" s="1">
-        <v>45869</v>
+        <v>50</v>
       </c>
       <c r="T40" s="1">
-        <v>45813</v>
-      </c>
-      <c r="U40" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V40" s="1">
-        <v>45748</v>
+        <v>45664</v>
       </c>
       <c r="W40" s="1">
-        <v>45814</v>
+        <v>45717</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -3964,22 +3968,22 @@
         <v>45808</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
         <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41">
-        <v>1283400</v>
+        <v>41</v>
+      </c>
+      <c r="G41">
+        <v>5000</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
@@ -3990,8 +3994,11 @@
       <c r="L41" t="s">
         <v>30</v>
       </c>
+      <c r="M41" t="s">
+        <v>266</v>
+      </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O41">
         <v>90113131698</v>
@@ -4000,22 +4007,13 @@
         <v>32</v>
       </c>
       <c r="Q41" t="s">
-        <v>217</v>
-      </c>
-      <c r="R41" s="1">
-        <v>45813</v>
+        <v>36</v>
       </c>
       <c r="T41" s="1">
-        <v>45813</v>
-      </c>
-      <c r="U41" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V41" s="1">
-        <v>45748</v>
+        <v>45701</v>
       </c>
       <c r="W41" s="1">
-        <v>45814</v>
+        <v>45749</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -4026,10 +4024,10 @@
         <v>45808</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -4038,17 +4036,14 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G42">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="H42">
         <v>25000</v>
       </c>
-      <c r="I42">
-        <v>5000</v>
-      </c>
       <c r="J42" t="s">
         <v>28</v>
       </c>
@@ -4071,13 +4066,19 @@
         <v>32</v>
       </c>
       <c r="Q42" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="T42" s="1">
-        <v>45807</v>
+        <v>45664</v>
+      </c>
+      <c r="U42" s="1">
+        <v>45747</v>
+      </c>
+      <c r="V42" s="1">
+        <v>45666</v>
       </c>
       <c r="W42" s="1">
-        <v>45808</v>
+        <v>45717</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -4088,10 +4089,10 @@
         <v>45808</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -4100,16 +4101,13 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
@@ -4124,7 +4122,7 @@
         <v>266</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O43">
         <v>90113131698</v>
@@ -4133,16 +4131,16 @@
         <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="T43" s="1">
-        <v>45807</v>
+        <v>45664</v>
       </c>
       <c r="W43" s="1">
-        <v>45808</v>
+        <v>45717</v>
       </c>
       <c r="X43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -4150,10 +4148,10 @@
         <v>45808</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -4162,28 +4160,25 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>877000</v>
       </c>
       <c r="H44">
-        <v>4135</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>4135</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
       </c>
-      <c r="K44" t="s">
-        <v>29</v>
-      </c>
       <c r="L44" t="s">
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="O44">
         <v>90113131698</v>
@@ -4192,19 +4187,13 @@
         <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>144</v>
-      </c>
-      <c r="R44" s="1">
-        <v>45807</v>
+        <v>114</v>
       </c>
       <c r="T44" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U44" s="1">
-        <v>45835</v>
+        <v>45715</v>
       </c>
       <c r="W44" s="1">
-        <v>45808</v>
+        <v>45772</v>
       </c>
       <c r="X44" s="2">
         <v>0</v>
@@ -4215,19 +4204,16 @@
         <v>45808</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
@@ -4251,16 +4237,19 @@
         <v>32</v>
       </c>
       <c r="Q45" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="T45" s="1">
-        <v>45664</v>
+        <v>45813</v>
       </c>
       <c r="U45" s="1">
-        <v>45723</v>
+        <v>45838</v>
+      </c>
+      <c r="V45" s="1">
+        <v>45810</v>
       </c>
       <c r="W45" s="1">
-        <v>45717</v>
+        <v>45814</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -4271,25 +4260,22 @@
         <v>45808</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46">
-        <v>1000</v>
-      </c>
-      <c r="H46">
-        <v>17890</v>
+        <v>60</v>
+      </c>
+      <c r="I46">
+        <v>1328400</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
@@ -4298,13 +4284,13 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N46" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O46">
         <v>90113131698</v>
@@ -4313,16 +4299,22 @@
         <v>32</v>
       </c>
       <c r="Q46" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="S46" s="1">
-        <v>45820</v>
+        <v>45869</v>
       </c>
       <c r="T46" s="1">
-        <v>45747</v>
+        <v>45813</v>
+      </c>
+      <c r="U46" s="1">
+        <v>45838</v>
+      </c>
+      <c r="V46" s="1">
+        <v>45748</v>
       </c>
       <c r="W46" s="1">
-        <v>45749</v>
+        <v>45814</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -4333,52 +4325,58 @@
         <v>45808</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
       </c>
       <c r="G47">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="H47">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="I47">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
       <c r="L47" t="s">
         <v>30</v>
       </c>
       <c r="M47" t="s">
         <v>266</v>
       </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
       <c r="O47">
         <v>90113131698</v>
       </c>
       <c r="P47" t="s">
         <v>32</v>
       </c>
-      <c r="S47" s="1">
-        <v>45869</v>
+      <c r="Q47" t="s">
+        <v>144</v>
       </c>
       <c r="T47" s="1">
-        <v>45814</v>
+        <v>45807</v>
       </c>
       <c r="W47" s="1">
-        <v>45815</v>
+        <v>45808</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -4389,10 +4387,10 @@
         <v>45808</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4404,10 +4402,13 @@
         <v>81</v>
       </c>
       <c r="G48">
-        <v>15480</v>
+        <v>38261</v>
       </c>
       <c r="H48">
-        <v>16416</v>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -4422,7 +4423,7 @@
         <v>266</v>
       </c>
       <c r="N48" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O48">
         <v>90113131698</v>
@@ -4431,22 +4432,16 @@
         <v>32</v>
       </c>
       <c r="Q48" t="s">
-        <v>122</v>
-      </c>
-      <c r="S48" s="1">
-        <v>45799</v>
+        <v>144</v>
       </c>
       <c r="T48" s="1">
-        <v>45715</v>
-      </c>
-      <c r="U48" s="1">
-        <v>45714</v>
+        <v>45807</v>
       </c>
       <c r="W48" s="1">
-        <v>45717</v>
+        <v>45808</v>
       </c>
       <c r="X48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4454,10 +4449,10 @@
         <v>45808</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4466,13 +4461,7 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49">
-        <v>7000</v>
-      </c>
-      <c r="H49">
-        <v>15000</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -4496,10 +4485,16 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="T49" s="1">
-        <v>45819</v>
+        <v>45664</v>
+      </c>
+      <c r="U49" s="1">
+        <v>45723</v>
+      </c>
+      <c r="W49" s="1">
+        <v>45717</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
@@ -4510,10 +4505,10 @@
         <v>45808</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4525,10 +4520,10 @@
         <v>45</v>
       </c>
       <c r="G50">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="H50">
-        <v>700</v>
+        <v>17890</v>
       </c>
       <c r="J50" t="s">
         <v>28</v>
@@ -4537,10 +4532,10 @@
         <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M50" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N50" t="s">
         <v>42</v>
@@ -4552,10 +4547,16 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>245</v>
+        <v>157</v>
+      </c>
+      <c r="S50" s="1">
+        <v>45820</v>
       </c>
       <c r="T50" s="1">
-        <v>45819</v>
+        <v>45747</v>
+      </c>
+      <c r="W50" s="1">
+        <v>45749</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -4566,61 +4567,52 @@
         <v>45808</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G51">
-        <v>22781.85</v>
+        <v>8000</v>
       </c>
       <c r="H51">
-        <v>37618.769999999997</v>
+        <v>15000</v>
+      </c>
+      <c r="I51">
+        <v>3000</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
-      <c r="K51" t="s">
-        <v>29</v>
-      </c>
       <c r="L51" t="s">
         <v>30</v>
       </c>
       <c r="M51" t="s">
         <v>266</v>
       </c>
-      <c r="N51" t="s">
-        <v>31</v>
-      </c>
       <c r="O51">
         <v>90113131698</v>
       </c>
       <c r="P51" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="1">
-        <v>45740</v>
+      <c r="S51" s="1">
+        <v>45869</v>
       </c>
       <c r="T51" s="1">
-        <v>45662</v>
-      </c>
-      <c r="U51" s="1">
-        <v>45594</v>
+        <v>45814</v>
       </c>
       <c r="W51" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -4631,19 +4623,25 @@
         <v>45808</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="G52">
+        <v>15480</v>
+      </c>
+      <c r="H52">
+        <v>16416</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -4655,7 +4653,7 @@
         <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N52" t="s">
         <v>42</v>
@@ -4666,11 +4664,20 @@
       <c r="P52" t="s">
         <v>32</v>
       </c>
+      <c r="Q52" t="s">
+        <v>122</v>
+      </c>
+      <c r="S52" s="1">
+        <v>45799</v>
+      </c>
       <c r="T52" s="1">
-        <v>45768</v>
+        <v>45715</v>
+      </c>
+      <c r="U52" s="1">
+        <v>45714</v>
       </c>
       <c r="W52" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -4681,19 +4688,25 @@
         <v>45808</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G53">
+        <v>7000</v>
+      </c>
+      <c r="H53">
+        <v>15000</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -4717,16 +4730,10 @@
         <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="T53" s="1">
-        <v>45712</v>
-      </c>
-      <c r="U53" s="1">
-        <v>45712</v>
-      </c>
-      <c r="W53" s="1">
-        <v>45717</v>
+        <v>45819</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -4737,22 +4744,25 @@
         <v>45808</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="G54">
-        <v>5000</v>
+        <v>4500</v>
+      </c>
+      <c r="H54">
+        <v>700</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -4766,17 +4776,20 @@
       <c r="M54" t="s">
         <v>266</v>
       </c>
+      <c r="N54" t="s">
+        <v>42</v>
+      </c>
       <c r="O54">
         <v>90113131698</v>
       </c>
       <c r="P54" t="s">
         <v>32</v>
       </c>
+      <c r="Q54" t="s">
+        <v>245</v>
+      </c>
       <c r="T54" s="1">
-        <v>45701</v>
-      </c>
-      <c r="W54" s="1">
-        <v>45804</v>
+        <v>45819</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -4787,25 +4800,19 @@
         <v>45808</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55">
-        <v>10557</v>
-      </c>
-      <c r="H55">
-        <v>10500</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
         <v>28</v>
@@ -4813,8 +4820,14 @@
       <c r="K55" t="s">
         <v>29</v>
       </c>
+      <c r="L55" t="s">
+        <v>30</v>
+      </c>
       <c r="M55" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N55" t="s">
+        <v>42</v>
       </c>
       <c r="O55">
         <v>90113131698</v>
@@ -4822,20 +4835,11 @@
       <c r="P55" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" t="s">
-        <v>150</v>
-      </c>
-      <c r="S55" s="1">
-        <v>45869</v>
-      </c>
       <c r="T55" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U55" s="1">
-        <v>45810</v>
+        <v>45768</v>
       </c>
       <c r="W55" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X55" s="2">
         <v>0</v>
@@ -4846,13 +4850,13 @@
         <v>45808</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
@@ -4860,17 +4864,38 @@
       <c r="F56" t="s">
         <v>41</v>
       </c>
+      <c r="J56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" t="s">
+        <v>266</v>
+      </c>
+      <c r="N56" t="s">
+        <v>42</v>
+      </c>
       <c r="O56">
         <v>90113131698</v>
       </c>
       <c r="P56" t="s">
         <v>32</v>
       </c>
+      <c r="Q56" t="s">
+        <v>36</v>
+      </c>
       <c r="T56" s="1">
-        <v>45790</v>
+        <v>45712</v>
+      </c>
+      <c r="U56" s="1">
+        <v>45712</v>
       </c>
       <c r="W56" s="1">
-        <v>45791</v>
+        <v>45717</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -4881,26 +4906,23 @@
         <v>45808</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G57">
         <v>5000</v>
       </c>
-      <c r="H57">
-        <v>10000</v>
-      </c>
       <c r="J57" t="s">
         <v>28</v>
       </c>
@@ -4913,9 +4935,6 @@
       <c r="M57" t="s">
         <v>266</v>
       </c>
-      <c r="N57" t="s">
-        <v>31</v>
-      </c>
       <c r="O57">
         <v>90113131698</v>
       </c>
@@ -4923,13 +4942,10 @@
         <v>32</v>
       </c>
       <c r="T57" s="1">
-        <v>45664</v>
-      </c>
-      <c r="V57" s="1">
-        <v>45748</v>
+        <v>45701</v>
       </c>
       <c r="W57" s="1">
-        <v>45749</v>
+        <v>45804</v>
       </c>
       <c r="X57" s="2">
         <v>0</v>
@@ -4940,25 +4956,25 @@
         <v>45808</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>7000</v>
+        <v>10557</v>
       </c>
       <c r="H58">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="J58" t="s">
         <v>28</v>
@@ -4966,15 +4982,9 @@
       <c r="K58" t="s">
         <v>29</v>
       </c>
-      <c r="L58" t="s">
-        <v>75</v>
-      </c>
       <c r="M58" t="s">
         <v>266</v>
       </c>
-      <c r="N58" t="s">
-        <v>42</v>
-      </c>
       <c r="O58">
         <v>90113131698</v>
       </c>
@@ -4982,13 +4992,16 @@
         <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>117</v>
+        <v>150</v>
+      </c>
+      <c r="S58" s="1">
+        <v>45869</v>
       </c>
       <c r="T58" s="1">
         <v>45716</v>
       </c>
       <c r="U58" s="1">
-        <v>45699</v>
+        <v>45810</v>
       </c>
       <c r="W58" s="1">
         <v>45749</v>
@@ -5002,34 +5015,19 @@
         <v>45808</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59">
-        <v>2500</v>
-      </c>
-      <c r="H59">
-        <v>15000</v>
-      </c>
-      <c r="J59" t="s">
-        <v>28</v>
-      </c>
-      <c r="L59" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O59">
         <v>90113131698</v>
@@ -5037,14 +5035,11 @@
       <c r="P59" t="s">
         <v>32</v>
       </c>
-      <c r="Q59" t="s">
-        <v>88</v>
-      </c>
       <c r="T59" s="1">
-        <v>45814</v>
+        <v>45790</v>
       </c>
       <c r="W59" s="1">
-        <v>45815</v>
+        <v>45791</v>
       </c>
       <c r="X59" s="2">
         <v>0</v>
@@ -5055,10 +5050,10 @@
         <v>45808</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -5067,13 +5062,13 @@
         <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G60">
-        <v>5382</v>
+        <v>5000</v>
       </c>
       <c r="H60">
-        <v>9286</v>
+        <v>10000</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
@@ -5085,10 +5080,10 @@
         <v>30</v>
       </c>
       <c r="M60" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N60" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O60">
         <v>90113131698</v>
@@ -5096,17 +5091,11 @@
       <c r="P60" t="s">
         <v>32</v>
       </c>
-      <c r="Q60" t="s">
-        <v>132</v>
-      </c>
-      <c r="S60" s="1">
-        <v>45789</v>
-      </c>
       <c r="T60" s="1">
-        <v>45715</v>
-      </c>
-      <c r="U60" s="1">
-        <v>45775</v>
+        <v>45664</v>
+      </c>
+      <c r="V60" s="1">
+        <v>45748</v>
       </c>
       <c r="W60" s="1">
         <v>45749</v>
@@ -5120,10 +5109,10 @@
         <v>45808</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -5135,10 +5124,10 @@
         <v>45</v>
       </c>
       <c r="G61">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="H61">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
@@ -5147,7 +5136,7 @@
         <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M61" t="s">
         <v>266</v>
@@ -5162,13 +5151,16 @@
         <v>32</v>
       </c>
       <c r="Q61" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="T61" s="1">
-        <v>45807</v>
+        <v>45716</v>
+      </c>
+      <c r="U61" s="1">
+        <v>45699</v>
       </c>
       <c r="W61" s="1">
-        <v>45808</v>
+        <v>45749</v>
       </c>
       <c r="X61" s="2">
         <v>0</v>
@@ -5179,46 +5171,49 @@
         <v>45808</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G62">
+        <v>2500</v>
+      </c>
+      <c r="H62">
+        <v>15000</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
       </c>
-      <c r="K62" t="s">
-        <v>29</v>
-      </c>
       <c r="L62" t="s">
         <v>30</v>
       </c>
       <c r="M62" t="s">
         <v>69</v>
       </c>
-      <c r="N62" t="s">
-        <v>42</v>
-      </c>
       <c r="O62">
         <v>90113131698</v>
       </c>
       <c r="P62" t="s">
         <v>32</v>
       </c>
+      <c r="Q62" t="s">
+        <v>88</v>
+      </c>
       <c r="T62" s="1">
-        <v>45768</v>
+        <v>45814</v>
       </c>
       <c r="W62" s="1">
-        <v>45769</v>
+        <v>45815</v>
       </c>
       <c r="X62" s="2">
         <v>0</v>
@@ -5229,19 +5224,25 @@
         <v>45808</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="G63">
+        <v>5382</v>
+      </c>
+      <c r="H63">
+        <v>9286</v>
       </c>
       <c r="J63" t="s">
         <v>28</v>
@@ -5264,11 +5265,20 @@
       <c r="P63" t="s">
         <v>32</v>
       </c>
+      <c r="Q63" t="s">
+        <v>132</v>
+      </c>
+      <c r="S63" s="1">
+        <v>45789</v>
+      </c>
       <c r="T63" s="1">
-        <v>45768</v>
+        <v>45715</v>
+      </c>
+      <c r="U63" s="1">
+        <v>45775</v>
       </c>
       <c r="W63" s="1">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="X63" s="2">
         <v>0</v>
@@ -5279,31 +5289,37 @@
         <v>45808</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="G64">
+        <v>13000</v>
+      </c>
+      <c r="H64">
+        <v>20000</v>
       </c>
       <c r="J64" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M64" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N64" t="s">
         <v>42</v>
@@ -5315,19 +5331,13 @@
         <v>32</v>
       </c>
       <c r="Q64" t="s">
-        <v>76</v>
-      </c>
-      <c r="R64" s="1">
-        <v>45740</v>
+        <v>209</v>
       </c>
       <c r="T64" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U64" s="1">
-        <v>45701</v>
+        <v>45807</v>
       </c>
       <c r="W64" s="1">
-        <v>45717</v>
+        <v>45808</v>
       </c>
       <c r="X64" s="2">
         <v>0</v>
@@ -5338,16 +5348,16 @@
         <v>45808</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -5358,8 +5368,14 @@
       <c r="K65" t="s">
         <v>29</v>
       </c>
+      <c r="L65" t="s">
+        <v>30</v>
+      </c>
       <c r="M65" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N65" t="s">
+        <v>42</v>
       </c>
       <c r="O65">
         <v>90113131698</v>
@@ -5367,14 +5383,11 @@
       <c r="P65" t="s">
         <v>32</v>
       </c>
-      <c r="Q65" t="s">
-        <v>36</v>
-      </c>
       <c r="T65" s="1">
-        <v>45701</v>
+        <v>45768</v>
       </c>
       <c r="W65" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X65" s="2">
         <v>0</v>
@@ -5385,25 +5398,34 @@
         <v>45808</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
       </c>
-      <c r="H66">
-        <v>10000</v>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N66" t="s">
+        <v>42</v>
       </c>
       <c r="O66">
         <v>90113131698</v>
@@ -5426,13 +5448,13 @@
         <v>45808</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
         <v>59</v>
@@ -5446,9 +5468,6 @@
       <c r="K67" t="s">
         <v>29</v>
       </c>
-      <c r="L67" t="s">
-        <v>30</v>
-      </c>
       <c r="M67" t="s">
         <v>266</v>
       </c>
@@ -5459,13 +5478,10 @@
         <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="T67" s="1">
-        <v>45712</v>
-      </c>
-      <c r="U67" s="1">
-        <v>45712</v>
+        <v>45701</v>
       </c>
       <c r="W67" s="1">
         <v>45717</v>
@@ -5479,10 +5495,10 @@
         <v>45808</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
@@ -5491,22 +5507,10 @@
         <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>8000</v>
-      </c>
-      <c r="J68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" t="s">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="M68" t="s">
         <v>266</v>
@@ -5517,20 +5521,11 @@
       <c r="P68" t="s">
         <v>32</v>
       </c>
-      <c r="Q68" t="s">
-        <v>102</v>
-      </c>
-      <c r="S68" s="1">
-        <v>45869</v>
-      </c>
       <c r="T68" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U68" s="1">
-        <v>45691</v>
+        <v>45768</v>
       </c>
       <c r="W68" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X68" s="2">
         <v>0</v>
@@ -5541,19 +5536,19 @@
         <v>45808</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69">
-        <v>7500</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s">
         <v>28</v>
@@ -5567,9 +5562,6 @@
       <c r="M69" t="s">
         <v>266</v>
       </c>
-      <c r="N69" t="s">
-        <v>42</v>
-      </c>
       <c r="O69">
         <v>90113131698</v>
       </c>
@@ -5577,14 +5569,14 @@
         <v>32</v>
       </c>
       <c r="Q69" t="s">
-        <v>102</v>
-      </c>
-      <c r="R69" s="1">
-        <v>45740</v>
+        <v>107</v>
       </c>
       <c r="T69" s="1">
         <v>45712</v>
       </c>
+      <c r="U69" s="1">
+        <v>45712</v>
+      </c>
       <c r="W69" s="1">
         <v>45717</v>
       </c>
@@ -5597,37 +5589,37 @@
         <v>45808</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
         <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G70">
-        <v>652.42999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>8000</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
-      </c>
-      <c r="K70" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L70" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M70" t="s">
-        <v>69</v>
-      </c>
-      <c r="N70" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="O70">
         <v>90113131698</v>
@@ -5635,8 +5627,20 @@
       <c r="P70" t="s">
         <v>32</v>
       </c>
+      <c r="Q70" t="s">
+        <v>102</v>
+      </c>
+      <c r="S70" s="1">
+        <v>45869</v>
+      </c>
       <c r="T70" s="1">
-        <v>45832</v>
+        <v>45716</v>
+      </c>
+      <c r="U70" s="1">
+        <v>45691</v>
+      </c>
+      <c r="W70" s="1">
+        <v>45717</v>
       </c>
       <c r="X70" s="2">
         <v>0</v>
@@ -5647,19 +5651,22 @@
         <v>45808</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="G71">
+        <v>652.42999999999995</v>
       </c>
       <c r="J71" t="s">
         <v>74</v>
@@ -5673,6 +5680,9 @@
       <c r="M71" t="s">
         <v>69</v>
       </c>
+      <c r="N71" t="s">
+        <v>31</v>
+      </c>
       <c r="O71">
         <v>90113131698</v>
       </c>
@@ -5691,25 +5701,19 @@
         <v>45808</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72">
-        <v>619.94000000000005</v>
-      </c>
-      <c r="H72">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s">
         <v>74</v>
@@ -5741,10 +5745,10 @@
         <v>45808</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -5753,7 +5757,13 @@
         <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="G73">
+        <v>619.94000000000005</v>
+      </c>
+      <c r="H73">
+        <v>350</v>
       </c>
       <c r="J73" t="s">
         <v>74</v>
@@ -5767,9 +5777,6 @@
       <c r="M73" t="s">
         <v>69</v>
       </c>
-      <c r="N73" t="s">
-        <v>31</v>
-      </c>
       <c r="O73">
         <v>90113131698</v>
       </c>
@@ -5788,10 +5795,10 @@
         <v>45808</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D74" t="s">
         <v>200</v>
@@ -5802,12 +5809,6 @@
       <c r="F74" t="s">
         <v>60</v>
       </c>
-      <c r="G74">
-        <v>1588.04</v>
-      </c>
-      <c r="H74">
-        <v>62164</v>
-      </c>
       <c r="J74" t="s">
         <v>74</v>
       </c>
@@ -5841,19 +5842,25 @@
         <v>45808</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G75">
+        <v>1588.04</v>
+      </c>
+      <c r="H75">
+        <v>62164</v>
       </c>
       <c r="J75" t="s">
         <v>74</v>
@@ -5862,11 +5869,14 @@
         <v>68</v>
       </c>
       <c r="L75" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M75" t="s">
         <v>69</v>
       </c>
+      <c r="N75" t="s">
+        <v>31</v>
+      </c>
       <c r="O75">
         <v>90113131698</v>
       </c>
@@ -5885,25 +5895,19 @@
         <v>45808</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76">
-        <v>119</v>
-      </c>
-      <c r="H76">
-        <v>714.11</v>
+        <v>41</v>
       </c>
       <c r="J76" t="s">
         <v>74</v>
@@ -5912,7 +5916,7 @@
         <v>68</v>
       </c>
       <c r="L76" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M76" t="s">
         <v>69</v>
@@ -5935,10 +5939,10 @@
         <v>45808</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D77" t="s">
         <v>200</v>
@@ -5950,7 +5954,10 @@
         <v>81</v>
       </c>
       <c r="G77">
-        <v>2055.4899999999998</v>
+        <v>119</v>
+      </c>
+      <c r="H77">
+        <v>714.11</v>
       </c>
       <c r="J77" t="s">
         <v>74</v>
@@ -5964,9 +5971,6 @@
       <c r="M77" t="s">
         <v>69</v>
       </c>
-      <c r="N77" t="s">
-        <v>31</v>
-      </c>
       <c r="O77">
         <v>90113131698</v>
       </c>
@@ -5985,34 +5989,37 @@
         <v>45808</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="E78" t="s">
         <v>59</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G78">
-        <v>4000</v>
-      </c>
-      <c r="H78">
-        <v>14000</v>
-      </c>
-      <c r="I78">
-        <v>20000</v>
+        <v>2055.4899999999998</v>
       </c>
       <c r="J78" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="K78" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
       </c>
       <c r="M78" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N78" t="s">
+        <v>31</v>
       </c>
       <c r="O78">
         <v>90113131698</v>
@@ -6020,20 +6027,8 @@
       <c r="P78" t="s">
         <v>32</v>
       </c>
-      <c r="Q78" t="s">
-        <v>36</v>
-      </c>
-      <c r="S78" s="1">
-        <v>45869</v>
-      </c>
       <c r="T78" s="1">
-        <v>45747</v>
-      </c>
-      <c r="U78" s="1">
-        <v>45810</v>
-      </c>
-      <c r="W78" s="1">
-        <v>45785</v>
+        <v>45832</v>
       </c>
       <c r="X78" s="2">
         <v>0</v>
@@ -6044,28 +6039,34 @@
         <v>45808</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G79">
+        <v>4000</v>
+      </c>
+      <c r="H79">
+        <v>14000</v>
+      </c>
+      <c r="I79">
+        <v>20000</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
       </c>
-      <c r="K79" t="s">
-        <v>29</v>
-      </c>
       <c r="M79" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="O79">
         <v>90113131698</v>
@@ -6073,11 +6074,20 @@
       <c r="P79" t="s">
         <v>32</v>
       </c>
+      <c r="Q79" t="s">
+        <v>36</v>
+      </c>
+      <c r="S79" s="1">
+        <v>45869</v>
+      </c>
       <c r="T79" s="1">
-        <v>45757</v>
+        <v>45747</v>
+      </c>
+      <c r="U79" s="1">
+        <v>45810</v>
       </c>
       <c r="W79" s="1">
-        <v>45758</v>
+        <v>45785</v>
       </c>
       <c r="X79" s="2">
         <v>0</v>
@@ -6088,13 +6098,13 @@
         <v>45808</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E80" t="s">
         <v>59</v>
@@ -6102,23 +6112,14 @@
       <c r="F80" t="s">
         <v>41</v>
       </c>
-      <c r="G80">
-        <v>5000</v>
-      </c>
       <c r="J80" t="s">
         <v>28</v>
       </c>
       <c r="K80" t="s">
         <v>29</v>
       </c>
-      <c r="L80" t="s">
-        <v>30</v>
-      </c>
       <c r="M80" t="s">
-        <v>266</v>
-      </c>
-      <c r="N80" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O80">
         <v>90113131698</v>
@@ -6126,14 +6127,11 @@
       <c r="P80" t="s">
         <v>32</v>
       </c>
-      <c r="Q80" t="s">
-        <v>36</v>
-      </c>
       <c r="T80" s="1">
-        <v>45701</v>
+        <v>45757</v>
       </c>
       <c r="W80" s="1">
-        <v>45749</v>
+        <v>45758</v>
       </c>
       <c r="X80" s="2">
         <v>0</v>
@@ -6144,20 +6142,23 @@
         <v>45808</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
       </c>
+      <c r="G81">
+        <v>5000</v>
+      </c>
       <c r="J81" t="s">
         <v>28</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>30</v>
       </c>
       <c r="M81" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N81" t="s">
         <v>42</v>
@@ -6179,11 +6180,14 @@
       <c r="P81" t="s">
         <v>32</v>
       </c>
+      <c r="Q81" t="s">
+        <v>36</v>
+      </c>
       <c r="T81" s="1">
-        <v>45768</v>
+        <v>45701</v>
       </c>
       <c r="W81" s="1">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="X81" s="2">
         <v>0</v>
@@ -6194,25 +6198,19 @@
         <v>45808</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>14000</v>
+        <v>41</v>
       </c>
       <c r="J82" t="s">
         <v>28</v>
@@ -6221,13 +6219,13 @@
         <v>29</v>
       </c>
       <c r="L82" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M82" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N82" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O82">
         <v>90113131698</v>
@@ -6235,17 +6233,11 @@
       <c r="P82" t="s">
         <v>32</v>
       </c>
-      <c r="Q82" t="s">
-        <v>135</v>
-      </c>
-      <c r="S82" s="1">
-        <v>45791</v>
-      </c>
       <c r="T82" s="1">
-        <v>45715</v>
+        <v>45768</v>
       </c>
       <c r="W82" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X82" s="2">
         <v>0</v>
@@ -6256,10 +6248,10 @@
         <v>45808</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
         <v>25</v>
@@ -6268,10 +6260,13 @@
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G83">
-        <v>1777</v>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>14000</v>
       </c>
       <c r="J83" t="s">
         <v>28</v>
@@ -6285,6 +6280,9 @@
       <c r="M83" t="s">
         <v>266</v>
       </c>
+      <c r="N83" t="s">
+        <v>31</v>
+      </c>
       <c r="O83">
         <v>90113131698</v>
       </c>
@@ -6294,17 +6292,14 @@
       <c r="Q83" t="s">
         <v>135</v>
       </c>
-      <c r="R83" s="1">
-        <v>45814</v>
-      </c>
       <c r="S83" s="1">
-        <v>45814</v>
+        <v>45791</v>
       </c>
       <c r="T83" s="1">
-        <v>45814</v>
+        <v>45715</v>
       </c>
       <c r="W83" s="1">
-        <v>45815</v>
+        <v>45749</v>
       </c>
       <c r="X83" s="2">
         <v>0</v>
@@ -6330,10 +6325,7 @@
         <v>81</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J84" t="s">
         <v>28</v>
@@ -7081,9 +7073,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W96" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W96">
-      <sortCondition ref="C1:C96"/>
+  <autoFilter ref="A1:X96">
+    <sortState ref="A2:X96">
+      <sortCondition descending="1" ref="R1:R96"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
+++ b/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\b4d\projects\b4d_analytics\src\b4d_pbi_executive_dashboard\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471CEF6-479D-4031-946C-B35CC1C4584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$96</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -844,7 +850,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1328,48 +1334,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1427,7 +1433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1479,7 +1485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1673,28 +1679,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" style="2"/>
   </cols>
@@ -1778,34 +1787,40 @@
         <v>45808</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G2">
-        <v>1777</v>
+        <v>70200.23</v>
+      </c>
+      <c r="H2">
+        <v>824770</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
       </c>
       <c r="O2">
         <v>90113131698</v>
@@ -1814,19 +1829,16 @@
         <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
-      </c>
-      <c r="R2" s="1">
-        <v>45807</v>
-      </c>
-      <c r="S2" s="1">
-        <v>45814</v>
+        <v>76</v>
       </c>
       <c r="T2" s="1">
-        <v>45814</v>
+        <v>45694</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45701</v>
       </c>
       <c r="W2" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X2" s="2">
         <v>0</v>
@@ -1837,22 +1849,25 @@
         <v>45808</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>1283400</v>
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>6200</v>
+      </c>
+      <c r="H3">
+        <v>6500</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -1863,8 +1878,11 @@
       <c r="L3" t="s">
         <v>30</v>
       </c>
+      <c r="M3" t="s">
+        <v>266</v>
+      </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O3">
         <v>90113131698</v>
@@ -1873,22 +1891,19 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>217</v>
-      </c>
-      <c r="R3" s="1">
-        <v>45807</v>
+        <v>117</v>
+      </c>
+      <c r="S3" s="1">
+        <v>45805</v>
       </c>
       <c r="T3" s="1">
-        <v>45813</v>
+        <v>45715</v>
       </c>
       <c r="U3" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V3" s="1">
-        <v>45748</v>
+        <v>45714</v>
       </c>
       <c r="W3" s="1">
-        <v>45814</v>
+        <v>45717</v>
       </c>
       <c r="X3" s="2">
         <v>0</v>
@@ -1899,10 +1914,10 @@
         <v>45808</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1911,28 +1926,22 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>4135</v>
-      </c>
-      <c r="I4">
-        <v>4135</v>
+        <v>50000</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
       </c>
       <c r="O4">
         <v>90113131698</v>
@@ -1941,19 +1950,16 @@
         <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" s="1">
-        <v>45807</v>
+        <v>130</v>
+      </c>
+      <c r="S4" s="1">
+        <v>45761</v>
       </c>
       <c r="T4" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U4" s="1">
-        <v>45835</v>
+        <v>45715</v>
       </c>
       <c r="W4" s="1">
-        <v>45808</v>
+        <v>45769</v>
       </c>
       <c r="X4" s="2">
         <v>0</v>
@@ -1964,40 +1970,28 @@
         <v>45808</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>22168.5</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>99000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
+        <v>38700</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>266</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O5">
         <v>90113131698</v>
@@ -2006,25 +2000,13 @@
         <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="1">
-        <v>45777</v>
-      </c>
-      <c r="S5" s="1">
-        <v>45807</v>
+        <v>130</v>
       </c>
       <c r="T5" s="1">
-        <v>45672</v>
-      </c>
-      <c r="U5" s="1">
-        <v>45777</v>
-      </c>
-      <c r="V5" s="1">
-        <v>45686</v>
+        <v>45756</v>
       </c>
       <c r="W5" s="1">
-        <v>45785</v>
+        <v>45771</v>
       </c>
       <c r="X5" s="2">
         <v>0</v>
@@ -2035,40 +2017,43 @@
         <v>45808</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G6">
-        <v>2396.9499999999998</v>
+        <v>17000</v>
       </c>
       <c r="H6">
-        <v>17974.900000000001</v>
+        <v>28000</v>
+      </c>
+      <c r="I6">
+        <v>5000</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O6">
         <v>90113131698</v>
@@ -2077,19 +2062,13 @@
         <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="1">
-        <v>45740</v>
+        <v>153</v>
       </c>
       <c r="T6" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U6" s="1">
-        <v>45701</v>
+        <v>45807</v>
       </c>
       <c r="W6" s="1">
-        <v>45717</v>
+        <v>45808</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -2100,10 +2079,10 @@
         <v>45808</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -2112,13 +2091,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>1800</v>
-      </c>
-      <c r="I7">
-        <v>52076</v>
+        <v>13948</v>
+      </c>
+      <c r="H7">
+        <v>19500</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -2142,16 +2121,19 @@
         <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="1">
-        <v>45740</v>
+        <v>153</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45799</v>
       </c>
       <c r="T7" s="1">
-        <v>45715</v>
+        <v>45733</v>
+      </c>
+      <c r="U7" s="1">
+        <v>45775</v>
       </c>
       <c r="W7" s="1">
-        <v>45717</v>
+        <v>45772</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -2162,40 +2144,37 @@
         <v>45808</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G8">
-        <v>22781.85</v>
+        <v>1155</v>
       </c>
       <c r="H8">
-        <v>37618.769999999997</v>
+        <v>17844</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>266</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O8">
         <v>90113131698</v>
@@ -2204,19 +2183,16 @@
         <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="1">
-        <v>45740</v>
+        <v>207</v>
       </c>
       <c r="T8" s="1">
-        <v>45662</v>
+        <v>45791</v>
       </c>
       <c r="U8" s="1">
-        <v>45594</v>
+        <v>45838</v>
       </c>
       <c r="W8" s="1">
-        <v>45717</v>
+        <v>45792</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -2227,31 +2203,37 @@
         <v>45808</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>29811</v>
+      </c>
+      <c r="H9">
+        <v>66147.5</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
@@ -2263,19 +2245,19 @@
         <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="1">
-        <v>45740</v>
+        <v>57</v>
+      </c>
+      <c r="S9" s="1">
+        <v>45869</v>
       </c>
       <c r="T9" s="1">
-        <v>45694</v>
+        <v>45672</v>
       </c>
       <c r="U9" s="1">
-        <v>45701</v>
+        <v>45845</v>
       </c>
       <c r="W9" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -2286,34 +2268,22 @@
         <v>45808</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10">
-        <v>7500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>15000</v>
       </c>
       <c r="M10" t="s">
-        <v>266</v>
-      </c>
-      <c r="N10" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <v>90113131698</v>
@@ -2321,17 +2291,11 @@
       <c r="P10" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="1">
-        <v>45740</v>
-      </c>
       <c r="T10" s="1">
-        <v>45712</v>
+        <v>45768</v>
       </c>
       <c r="W10" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -2342,13 +2306,13 @@
         <v>45808</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
@@ -2357,25 +2321,19 @@
         <v>81</v>
       </c>
       <c r="G11">
-        <v>70200.23</v>
+        <v>25609</v>
       </c>
       <c r="H11">
-        <v>824770</v>
+        <v>75075</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O11">
         <v>90113131698</v>
@@ -2384,16 +2342,16 @@
         <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>180</v>
+      </c>
+      <c r="S11" s="1">
+        <v>45869</v>
       </c>
       <c r="T11" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U11" s="1">
-        <v>45701</v>
+        <v>45768</v>
       </c>
       <c r="W11" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2404,37 +2362,37 @@
         <v>45808</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G12">
-        <v>6200</v>
+        <v>2000</v>
       </c>
       <c r="H12">
-        <v>6500</v>
+        <v>500</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
         <v>42</v>
@@ -2446,19 +2404,19 @@
         <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>117</v>
-      </c>
-      <c r="S12" s="1">
-        <v>45805</v>
+        <v>46</v>
       </c>
       <c r="T12" s="1">
-        <v>45715</v>
+        <v>45768</v>
       </c>
       <c r="U12" s="1">
-        <v>45714</v>
+        <v>45796</v>
+      </c>
+      <c r="V12" s="1">
+        <v>45796</v>
       </c>
       <c r="W12" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X12" s="2">
         <v>0</v>
@@ -2469,52 +2427,37 @@
         <v>45808</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13">
-        <v>50000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
       </c>
       <c r="M13" t="s">
         <v>69</v>
       </c>
-      <c r="N13" t="s">
-        <v>42</v>
-      </c>
       <c r="O13">
         <v>90113131698</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" s="1">
-        <v>45761</v>
-      </c>
       <c r="T13" s="1">
-        <v>45715</v>
+        <v>45757</v>
       </c>
       <c r="W13" s="1">
-        <v>45769</v>
+        <v>45758</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -2525,22 +2468,25 @@
         <v>45808</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14">
-        <v>38700</v>
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
       </c>
       <c r="L14" t="s">
         <v>30</v>
@@ -2548,6 +2494,9 @@
       <c r="M14" t="s">
         <v>69</v>
       </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
       <c r="O14">
         <v>90113131698</v>
       </c>
@@ -2555,13 +2504,13 @@
         <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="T14" s="1">
-        <v>45756</v>
+        <v>45701</v>
       </c>
       <c r="W14" s="1">
-        <v>45771</v>
+        <v>45717</v>
       </c>
       <c r="X14" s="2">
         <v>0</v>
@@ -2572,43 +2521,28 @@
         <v>45808</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15">
-        <v>17000</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>28000</v>
-      </c>
-      <c r="I15">
-        <v>5000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O15">
         <v>90113131698</v>
@@ -2616,14 +2550,17 @@
       <c r="P15" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" t="s">
-        <v>153</v>
-      </c>
       <c r="T15" s="1">
-        <v>45807</v>
+        <v>45768</v>
+      </c>
+      <c r="U15" s="1">
+        <v>45796</v>
+      </c>
+      <c r="V15" s="1">
+        <v>45796</v>
       </c>
       <c r="W15" s="1">
-        <v>45808</v>
+        <v>45769</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -2634,37 +2571,22 @@
         <v>45808</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16">
-        <v>13948</v>
-      </c>
-      <c r="H16">
-        <v>19500</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
@@ -2675,20 +2597,17 @@
       <c r="P16" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" t="s">
-        <v>153</v>
-      </c>
-      <c r="S16" s="1">
-        <v>45799</v>
-      </c>
       <c r="T16" s="1">
-        <v>45733</v>
+        <v>45768</v>
       </c>
       <c r="U16" s="1">
-        <v>45775</v>
+        <v>45787</v>
+      </c>
+      <c r="V16" s="1">
+        <v>45768</v>
       </c>
       <c r="W16" s="1">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
@@ -2699,37 +2618,40 @@
         <v>45808</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G17">
-        <v>1155</v>
+        <v>22168.5</v>
       </c>
       <c r="H17">
-        <v>17844</v>
+        <v>99000</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
         <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
       </c>
       <c r="O17">
         <v>90113131698</v>
@@ -2738,16 +2660,25 @@
         <v>32</v>
       </c>
       <c r="Q17" t="s">
-        <v>207</v>
+        <v>62</v>
+      </c>
+      <c r="R17" s="1">
+        <v>45777</v>
+      </c>
+      <c r="S17" s="1">
+        <v>45807</v>
       </c>
       <c r="T17" s="1">
-        <v>45791</v>
+        <v>45672</v>
       </c>
       <c r="U17" s="1">
-        <v>45838</v>
+        <v>45777</v>
+      </c>
+      <c r="V17" s="1">
+        <v>45686</v>
       </c>
       <c r="W17" s="1">
-        <v>45792</v>
+        <v>45785</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -2758,40 +2689,19 @@
         <v>45808</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18">
-        <v>29811</v>
-      </c>
-      <c r="H18">
-        <v>66147.5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" t="s">
-        <v>266</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18">
         <v>90113131698</v>
@@ -2799,20 +2709,14 @@
       <c r="P18" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="1">
-        <v>45869</v>
-      </c>
       <c r="T18" s="1">
-        <v>45672</v>
+        <v>45790</v>
       </c>
       <c r="U18" s="1">
-        <v>45845</v>
+        <v>45796</v>
       </c>
       <c r="W18" s="1">
-        <v>45749</v>
+        <v>45791</v>
       </c>
       <c r="X18" s="2">
         <v>0</v>
@@ -2823,19 +2727,22 @@
         <v>45808</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="H19">
-        <v>15000</v>
+      <c r="G19">
+        <v>5000</v>
       </c>
       <c r="M19" t="s">
         <v>69</v>
@@ -2849,6 +2756,12 @@
       <c r="T19" s="1">
         <v>45768</v>
       </c>
+      <c r="U19" s="1">
+        <v>45796</v>
+      </c>
+      <c r="V19" s="1">
+        <v>45796</v>
+      </c>
       <c r="W19" s="1">
         <v>45769</v>
       </c>
@@ -2861,10 +2774,10 @@
         <v>45808</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -2873,22 +2786,28 @@
         <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>25609</v>
+        <v>4833</v>
       </c>
       <c r="H20">
-        <v>75075</v>
+        <v>5800</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
       <c r="L20" t="s">
         <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
       </c>
       <c r="O20">
         <v>90113131698</v>
@@ -2897,13 +2816,13 @@
         <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="S20" s="1">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="T20" s="1">
-        <v>45768</v>
+        <v>45692</v>
       </c>
       <c r="W20" s="1">
         <v>45815</v>
@@ -2917,13 +2836,13 @@
         <v>45808</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -2932,22 +2851,22 @@
         <v>45</v>
       </c>
       <c r="G21">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H21">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N21" t="s">
         <v>42</v>
@@ -2959,19 +2878,13 @@
         <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="T21" s="1">
-        <v>45768</v>
-      </c>
-      <c r="U21" s="1">
-        <v>45796</v>
-      </c>
-      <c r="V21" s="1">
-        <v>45796</v>
+        <v>45664</v>
       </c>
       <c r="W21" s="1">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
@@ -2982,22 +2895,28 @@
         <v>45808</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="H22">
+        <v>100000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
       </c>
       <c r="M22" t="s">
         <v>69</v>
@@ -3008,11 +2927,14 @@
       <c r="P22" t="s">
         <v>32</v>
       </c>
+      <c r="S22" s="1">
+        <v>45869</v>
+      </c>
       <c r="T22" s="1">
-        <v>45757</v>
+        <v>45814</v>
       </c>
       <c r="W22" s="1">
-        <v>45758</v>
+        <v>45815</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
@@ -3023,34 +2945,37 @@
         <v>45808</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>8000</v>
+      </c>
+      <c r="H23">
+        <v>15000</v>
+      </c>
+      <c r="I23">
+        <v>3000</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="L23" t="s">
         <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O23">
         <v>90113131698</v>
@@ -3059,13 +2984,13 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="T23" s="1">
-        <v>45701</v>
+        <v>45814</v>
       </c>
       <c r="W23" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X23" s="2">
         <v>0</v>
@@ -3076,46 +3001,46 @@
         <v>45808</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24">
-        <v>15000</v>
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>2500</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
       </c>
       <c r="M24" t="s">
         <v>69</v>
       </c>
-      <c r="N24" t="s">
-        <v>42</v>
-      </c>
       <c r="O24">
         <v>90113131698</v>
       </c>
       <c r="P24" t="s">
         <v>32</v>
       </c>
+      <c r="S24" s="1">
+        <v>45869</v>
+      </c>
       <c r="T24" s="1">
-        <v>45768</v>
-      </c>
-      <c r="U24" s="1">
-        <v>45796</v>
-      </c>
-      <c r="V24" s="1">
-        <v>45796</v>
+        <v>45814</v>
       </c>
       <c r="W24" s="1">
-        <v>45769</v>
+        <v>45815</v>
       </c>
       <c r="X24" s="2">
         <v>0</v>
@@ -3126,22 +3051,31 @@
         <v>45808</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
       </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s">
         <v>42</v>
@@ -3152,17 +3086,14 @@
       <c r="P25" t="s">
         <v>32</v>
       </c>
+      <c r="Q25" t="s">
+        <v>36</v>
+      </c>
       <c r="T25" s="1">
-        <v>45768</v>
-      </c>
-      <c r="U25" s="1">
-        <v>45787</v>
-      </c>
-      <c r="V25" s="1">
-        <v>45768</v>
+        <v>45664</v>
       </c>
       <c r="W25" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X25" s="2">
         <v>0</v>
@@ -3173,10 +3104,10 @@
         <v>45808</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -3185,7 +3116,28 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>4558</v>
+      </c>
+      <c r="H26">
+        <v>353516</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" t="s">
+        <v>87</v>
       </c>
       <c r="O26">
         <v>90113131698</v>
@@ -3193,17 +3145,23 @@
       <c r="P26" t="s">
         <v>32</v>
       </c>
+      <c r="Q26" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="1">
+        <v>45869</v>
+      </c>
       <c r="T26" s="1">
-        <v>45790</v>
+        <v>45701</v>
       </c>
       <c r="U26" s="1">
-        <v>45796</v>
+        <v>45810</v>
       </c>
       <c r="W26" s="1">
-        <v>45791</v>
+        <v>45749</v>
       </c>
       <c r="X26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -3211,22 +3169,28 @@
         <v>45808</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
-      <c r="G27">
-        <v>5000</v>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
       </c>
       <c r="M27" t="s">
         <v>69</v>
@@ -3238,16 +3202,7 @@
         <v>32</v>
       </c>
       <c r="T27" s="1">
-        <v>45768</v>
-      </c>
-      <c r="U27" s="1">
-        <v>45796</v>
-      </c>
-      <c r="V27" s="1">
-        <v>45796</v>
-      </c>
-      <c r="W27" s="1">
-        <v>45769</v>
+        <v>45832</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -3258,34 +3213,34 @@
         <v>45808</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G28">
-        <v>4833</v>
+        <v>2396.9499999999998</v>
       </c>
       <c r="H28">
-        <v>5800</v>
+        <v>17974.900000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
         <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M28" t="s">
         <v>69</v>
@@ -3300,16 +3255,19 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" s="1">
-        <v>45900</v>
+        <v>76</v>
+      </c>
+      <c r="R28" s="1">
+        <v>45740</v>
       </c>
       <c r="T28" s="1">
-        <v>45692</v>
+        <v>45694</v>
+      </c>
+      <c r="U28" s="1">
+        <v>45701</v>
       </c>
       <c r="W28" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
@@ -3320,28 +3278,22 @@
         <v>45808</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29">
-        <v>5000</v>
-      </c>
-      <c r="H29">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
         <v>29</v>
@@ -3350,10 +3302,7 @@
         <v>30</v>
       </c>
       <c r="M29" t="s">
-        <v>266</v>
-      </c>
-      <c r="N29" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O29">
         <v>90113131698</v>
@@ -3361,14 +3310,11 @@
       <c r="P29" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" t="s">
-        <v>55</v>
-      </c>
       <c r="T29" s="1">
-        <v>45664</v>
+        <v>45757</v>
       </c>
       <c r="W29" s="1">
-        <v>45749</v>
+        <v>45758</v>
       </c>
       <c r="X29" s="2">
         <v>0</v>
@@ -3379,31 +3325,34 @@
         <v>45808</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30">
-        <v>100000</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
       </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
       <c r="L30" t="s">
         <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
       </c>
       <c r="O30">
         <v>90113131698</v>
@@ -3411,14 +3360,17 @@
       <c r="P30" t="s">
         <v>32</v>
       </c>
-      <c r="S30" s="1">
-        <v>45869</v>
+      <c r="Q30" t="s">
+        <v>64</v>
       </c>
       <c r="T30" s="1">
-        <v>45814</v>
+        <v>45692</v>
+      </c>
+      <c r="U30" s="1">
+        <v>45726</v>
       </c>
       <c r="W30" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X30" s="2">
         <v>0</v>
@@ -3429,13 +3381,13 @@
         <v>45808</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
         <v>59</v>
@@ -3444,23 +3396,29 @@
         <v>45</v>
       </c>
       <c r="G31">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H31">
-        <v>15000</v>
+        <v>12300</v>
       </c>
       <c r="I31">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
       </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
       <c r="L31" t="s">
         <v>30</v>
       </c>
       <c r="M31" t="s">
         <v>266</v>
       </c>
+      <c r="N31" t="s">
+        <v>42</v>
+      </c>
       <c r="O31">
         <v>90113131698</v>
       </c>
@@ -3468,13 +3426,16 @@
         <v>32</v>
       </c>
       <c r="Q31" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="T31" s="1">
-        <v>45814</v>
+        <v>45712</v>
+      </c>
+      <c r="U31" s="1">
+        <v>45712</v>
       </c>
       <c r="W31" s="1">
-        <v>45815</v>
+        <v>45749</v>
       </c>
       <c r="X31" s="2">
         <v>0</v>
@@ -3485,31 +3446,31 @@
         <v>45808</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32">
-        <v>2500</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
       </c>
       <c r="L32" t="s">
         <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="O32">
         <v>90113131698</v>
@@ -3517,14 +3478,8 @@
       <c r="P32" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="1">
-        <v>45869</v>
-      </c>
       <c r="T32" s="1">
-        <v>45814</v>
-      </c>
-      <c r="W32" s="1">
-        <v>45815</v>
+        <v>45832</v>
       </c>
       <c r="X32" s="2">
         <v>0</v>
@@ -3535,25 +3490,25 @@
         <v>45808</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G33">
-        <v>4558</v>
+        <v>7000</v>
       </c>
       <c r="H33">
-        <v>353516</v>
+        <v>7000</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
@@ -3565,10 +3520,10 @@
         <v>30</v>
       </c>
       <c r="M33" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N33" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O33">
         <v>90113131698</v>
@@ -3577,22 +3532,16 @@
         <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>88</v>
-      </c>
-      <c r="S33" s="1">
-        <v>45869</v>
+        <v>50</v>
       </c>
       <c r="T33" s="1">
-        <v>45701</v>
-      </c>
-      <c r="U33" s="1">
-        <v>45810</v>
+        <v>45664</v>
       </c>
       <c r="W33" s="1">
-        <v>45749</v>
+        <v>45717</v>
       </c>
       <c r="X33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -3600,20 +3549,23 @@
         <v>45808</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
+      <c r="G34">
+        <v>5000</v>
+      </c>
       <c r="J34" t="s">
         <v>28</v>
       </c>
@@ -3639,10 +3591,10 @@
         <v>36</v>
       </c>
       <c r="T34" s="1">
-        <v>45664</v>
+        <v>45701</v>
       </c>
       <c r="W34" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
@@ -3653,31 +3605,40 @@
         <v>45808</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>13500</v>
+      </c>
+      <c r="H35">
+        <v>25000</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="M35" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N35" t="s">
+        <v>31</v>
       </c>
       <c r="O35">
         <v>90113131698</v>
@@ -3685,8 +3646,20 @@
       <c r="P35" t="s">
         <v>32</v>
       </c>
+      <c r="Q35" t="s">
+        <v>36</v>
+      </c>
       <c r="T35" s="1">
-        <v>45832</v>
+        <v>45664</v>
+      </c>
+      <c r="U35" s="1">
+        <v>45747</v>
+      </c>
+      <c r="V35" s="1">
+        <v>45666</v>
+      </c>
+      <c r="W35" s="1">
+        <v>45717</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
@@ -3697,22 +3670,28 @@
         <v>45808</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>5000</v>
+      </c>
+      <c r="H36">
+        <v>10000</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K36" t="s">
         <v>29</v>
@@ -3721,7 +3700,10 @@
         <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
       </c>
       <c r="O36">
         <v>90113131698</v>
@@ -3729,11 +3711,14 @@
       <c r="P36" t="s">
         <v>32</v>
       </c>
+      <c r="Q36" t="s">
+        <v>46</v>
+      </c>
       <c r="T36" s="1">
-        <v>45757</v>
+        <v>45664</v>
       </c>
       <c r="W36" s="1">
-        <v>45758</v>
+        <v>45717</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -3744,10 +3729,10 @@
         <v>45808</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -3756,22 +3741,25 @@
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>877000</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
       </c>
-      <c r="K37" t="s">
-        <v>29</v>
-      </c>
       <c r="L37" t="s">
         <v>30</v>
       </c>
       <c r="M37" t="s">
-        <v>266</v>
-      </c>
-      <c r="N37" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="O37">
         <v>90113131698</v>
@@ -3780,16 +3768,13 @@
         <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="T37" s="1">
-        <v>45692</v>
-      </c>
-      <c r="U37" s="1">
-        <v>45726</v>
+        <v>45715</v>
       </c>
       <c r="W37" s="1">
-        <v>45717</v>
+        <v>45772</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
@@ -3800,28 +3785,25 @@
         <v>45808</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G38">
-        <v>10000</v>
-      </c>
-      <c r="H38">
-        <v>12300</v>
+        <v>1800</v>
       </c>
       <c r="I38">
-        <v>2500</v>
+        <v>52076</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -3845,16 +3827,16 @@
         <v>32</v>
       </c>
       <c r="Q38" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="R38" s="1">
+        <v>45740</v>
       </c>
       <c r="T38" s="1">
-        <v>45712</v>
-      </c>
-      <c r="U38" s="1">
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="W38" s="1">
-        <v>45749</v>
+        <v>45717</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -3865,25 +3847,22 @@
         <v>45808</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>241</v>
-      </c>
-      <c r="E39" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L39" t="s">
         <v>30</v>
@@ -3891,14 +3870,29 @@
       <c r="M39" t="s">
         <v>266</v>
       </c>
+      <c r="N39" t="s">
+        <v>42</v>
+      </c>
       <c r="O39">
         <v>90113131698</v>
       </c>
       <c r="P39" t="s">
         <v>32</v>
       </c>
+      <c r="Q39" t="s">
+        <v>217</v>
+      </c>
       <c r="T39" s="1">
-        <v>45832</v>
+        <v>45813</v>
+      </c>
+      <c r="U39" s="1">
+        <v>45838</v>
+      </c>
+      <c r="V39" s="1">
+        <v>45810</v>
+      </c>
+      <c r="W39" s="1">
+        <v>45814</v>
       </c>
       <c r="X39" s="2">
         <v>0</v>
@@ -3909,25 +3903,22 @@
         <v>45808</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40">
-        <v>7000</v>
-      </c>
-      <c r="H40">
-        <v>7000</v>
+        <v>27</v>
+      </c>
+      <c r="I40">
+        <v>1283400</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -3938,11 +3929,8 @@
       <c r="L40" t="s">
         <v>30</v>
       </c>
-      <c r="M40" t="s">
-        <v>266</v>
-      </c>
       <c r="N40" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O40">
         <v>90113131698</v>
@@ -3951,13 +3939,22 @@
         <v>32</v>
       </c>
       <c r="Q40" t="s">
-        <v>50</v>
+        <v>217</v>
+      </c>
+      <c r="R40" s="1">
+        <v>45807</v>
       </c>
       <c r="T40" s="1">
-        <v>45664</v>
+        <v>45813</v>
+      </c>
+      <c r="U40" s="1">
+        <v>45838</v>
+      </c>
+      <c r="V40" s="1">
+        <v>45748</v>
       </c>
       <c r="W40" s="1">
-        <v>45717</v>
+        <v>45814</v>
       </c>
       <c r="X40" s="2">
         <v>0</v>
@@ -3968,22 +3965,22 @@
         <v>45808</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
         <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41">
-        <v>5000</v>
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <v>1328400</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
@@ -3998,7 +3995,7 @@
         <v>266</v>
       </c>
       <c r="N41" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O41">
         <v>90113131698</v>
@@ -4007,13 +4004,22 @@
         <v>32</v>
       </c>
       <c r="Q41" t="s">
-        <v>36</v>
+        <v>217</v>
+      </c>
+      <c r="S41" s="1">
+        <v>45869</v>
       </c>
       <c r="T41" s="1">
-        <v>45701</v>
+        <v>45813</v>
+      </c>
+      <c r="U41" s="1">
+        <v>45838</v>
+      </c>
+      <c r="V41" s="1">
+        <v>45748</v>
       </c>
       <c r="W41" s="1">
-        <v>45749</v>
+        <v>45814</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -4024,10 +4030,10 @@
         <v>45808</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -4036,14 +4042,17 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G42">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="H42">
         <v>25000</v>
       </c>
+      <c r="I42">
+        <v>5000</v>
+      </c>
       <c r="J42" t="s">
         <v>28</v>
       </c>
@@ -4066,19 +4075,13 @@
         <v>32</v>
       </c>
       <c r="Q42" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="T42" s="1">
-        <v>45664</v>
-      </c>
-      <c r="U42" s="1">
-        <v>45747</v>
-      </c>
-      <c r="V42" s="1">
-        <v>45666</v>
+        <v>45807</v>
       </c>
       <c r="W42" s="1">
-        <v>45717</v>
+        <v>45808</v>
       </c>
       <c r="X42" s="2">
         <v>0</v>
@@ -4089,10 +4092,10 @@
         <v>45808</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -4101,13 +4104,16 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G43">
-        <v>5000</v>
+        <v>38261</v>
       </c>
       <c r="H43">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
@@ -4122,7 +4128,7 @@
         <v>266</v>
       </c>
       <c r="N43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O43">
         <v>90113131698</v>
@@ -4131,13 +4137,13 @@
         <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="T43" s="1">
-        <v>45664</v>
+        <v>45807</v>
       </c>
       <c r="W43" s="1">
-        <v>45717</v>
+        <v>45808</v>
       </c>
       <c r="X43" s="2">
         <v>0</v>
@@ -4148,10 +4154,10 @@
         <v>45808</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -4160,25 +4166,28 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="G44">
-        <v>877000</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4135</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>4135</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
       </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
       <c r="L44" t="s">
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="O44">
         <v>90113131698</v>
@@ -4187,16 +4196,22 @@
         <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>114</v>
+        <v>144</v>
+      </c>
+      <c r="R44" s="1">
+        <v>45807</v>
       </c>
       <c r="T44" s="1">
-        <v>45715</v>
+        <v>45716</v>
+      </c>
+      <c r="U44" s="1">
+        <v>45835</v>
       </c>
       <c r="W44" s="1">
-        <v>45772</v>
+        <v>45808</v>
       </c>
       <c r="X44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -4204,16 +4219,19 @@
         <v>45808</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
@@ -4237,19 +4255,16 @@
         <v>32</v>
       </c>
       <c r="Q45" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="T45" s="1">
-        <v>45813</v>
+        <v>45664</v>
       </c>
       <c r="U45" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V45" s="1">
-        <v>45810</v>
+        <v>45723</v>
       </c>
       <c r="W45" s="1">
-        <v>45814</v>
+        <v>45717</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -4260,22 +4275,25 @@
         <v>45808</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46">
-        <v>1328400</v>
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>17890</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
@@ -4284,13 +4302,13 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M46" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O46">
         <v>90113131698</v>
@@ -4299,22 +4317,16 @@
         <v>32</v>
       </c>
       <c r="Q46" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="S46" s="1">
-        <v>45869</v>
+        <v>45820</v>
       </c>
       <c r="T46" s="1">
-        <v>45813</v>
-      </c>
-      <c r="U46" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V46" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="W46" s="1">
-        <v>45814</v>
+        <v>45749</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -4325,58 +4337,52 @@
         <v>45808</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
       </c>
       <c r="G47">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="H47">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="I47">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
-      <c r="K47" t="s">
-        <v>29</v>
-      </c>
       <c r="L47" t="s">
         <v>30</v>
       </c>
       <c r="M47" t="s">
         <v>266</v>
       </c>
-      <c r="N47" t="s">
-        <v>31</v>
-      </c>
       <c r="O47">
         <v>90113131698</v>
       </c>
       <c r="P47" t="s">
         <v>32</v>
       </c>
-      <c r="Q47" t="s">
-        <v>144</v>
+      <c r="S47" s="1">
+        <v>45869</v>
       </c>
       <c r="T47" s="1">
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="W47" s="1">
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -4387,10 +4393,10 @@
         <v>45808</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4402,13 +4408,10 @@
         <v>81</v>
       </c>
       <c r="G48">
-        <v>38261</v>
+        <v>15480</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
+        <v>16416</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -4423,7 +4426,7 @@
         <v>266</v>
       </c>
       <c r="N48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O48">
         <v>90113131698</v>
@@ -4432,16 +4435,22 @@
         <v>32</v>
       </c>
       <c r="Q48" t="s">
-        <v>144</v>
+        <v>122</v>
+      </c>
+      <c r="S48" s="1">
+        <v>45799</v>
       </c>
       <c r="T48" s="1">
-        <v>45807</v>
+        <v>45715</v>
+      </c>
+      <c r="U48" s="1">
+        <v>45714</v>
       </c>
       <c r="W48" s="1">
-        <v>45808</v>
+        <v>45717</v>
       </c>
       <c r="X48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -4449,10 +4458,10 @@
         <v>45808</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4461,7 +4470,13 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G49">
+        <v>7000</v>
+      </c>
+      <c r="H49">
+        <v>15000</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -4485,16 +4500,10 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="T49" s="1">
-        <v>45664</v>
-      </c>
-      <c r="U49" s="1">
-        <v>45723</v>
-      </c>
-      <c r="W49" s="1">
-        <v>45717</v>
+        <v>45819</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
@@ -4505,10 +4514,10 @@
         <v>45808</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="C50" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4520,10 +4529,10 @@
         <v>45</v>
       </c>
       <c r="G50">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="H50">
-        <v>17890</v>
+        <v>700</v>
       </c>
       <c r="J50" t="s">
         <v>28</v>
@@ -4532,10 +4541,10 @@
         <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N50" t="s">
         <v>42</v>
@@ -4547,16 +4556,10 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>157</v>
-      </c>
-      <c r="S50" s="1">
-        <v>45820</v>
+        <v>245</v>
       </c>
       <c r="T50" s="1">
-        <v>45747</v>
-      </c>
-      <c r="W50" s="1">
-        <v>45749</v>
+        <v>45819</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -4567,52 +4570,61 @@
         <v>45808</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G51">
-        <v>8000</v>
+        <v>22781.85</v>
       </c>
       <c r="H51">
-        <v>15000</v>
-      </c>
-      <c r="I51">
-        <v>3000</v>
+        <v>37618.769999999997</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
       <c r="L51" t="s">
         <v>30</v>
       </c>
       <c r="M51" t="s">
         <v>266</v>
       </c>
+      <c r="N51" t="s">
+        <v>31</v>
+      </c>
       <c r="O51">
         <v>90113131698</v>
       </c>
       <c r="P51" t="s">
         <v>32</v>
       </c>
-      <c r="S51" s="1">
-        <v>45869</v>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="1">
+        <v>45740</v>
       </c>
       <c r="T51" s="1">
-        <v>45814</v>
+        <v>45662</v>
+      </c>
+      <c r="U51" s="1">
+        <v>45594</v>
       </c>
       <c r="W51" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -4623,25 +4635,19 @@
         <v>45808</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52">
-        <v>15480</v>
-      </c>
-      <c r="H52">
-        <v>16416</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -4653,7 +4659,7 @@
         <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N52" t="s">
         <v>42</v>
@@ -4664,20 +4670,11 @@
       <c r="P52" t="s">
         <v>32</v>
       </c>
-      <c r="Q52" t="s">
-        <v>122</v>
-      </c>
-      <c r="S52" s="1">
-        <v>45799</v>
-      </c>
       <c r="T52" s="1">
-        <v>45715</v>
-      </c>
-      <c r="U52" s="1">
-        <v>45714</v>
+        <v>45768</v>
       </c>
       <c r="W52" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -4688,25 +4685,19 @@
         <v>45808</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53">
-        <v>7000</v>
-      </c>
-      <c r="H53">
-        <v>15000</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -4730,10 +4721,16 @@
         <v>32</v>
       </c>
       <c r="Q53" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="T53" s="1">
-        <v>45819</v>
+        <v>45712</v>
+      </c>
+      <c r="U53" s="1">
+        <v>45712</v>
+      </c>
+      <c r="W53" s="1">
+        <v>45717</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -4744,25 +4741,22 @@
         <v>45808</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G54">
-        <v>4500</v>
-      </c>
-      <c r="H54">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -4776,20 +4770,17 @@
       <c r="M54" t="s">
         <v>266</v>
       </c>
-      <c r="N54" t="s">
-        <v>42</v>
-      </c>
       <c r="O54">
         <v>90113131698</v>
       </c>
       <c r="P54" t="s">
         <v>32</v>
       </c>
-      <c r="Q54" t="s">
-        <v>245</v>
-      </c>
       <c r="T54" s="1">
-        <v>45819</v>
+        <v>45701</v>
+      </c>
+      <c r="W54" s="1">
+        <v>45804</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -4800,19 +4791,25 @@
         <v>45808</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G55">
+        <v>10557</v>
+      </c>
+      <c r="H55">
+        <v>10500</v>
       </c>
       <c r="J55" t="s">
         <v>28</v>
@@ -4820,14 +4817,8 @@
       <c r="K55" t="s">
         <v>29</v>
       </c>
-      <c r="L55" t="s">
-        <v>30</v>
-      </c>
       <c r="M55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O55">
         <v>90113131698</v>
@@ -4835,11 +4826,20 @@
       <c r="P55" t="s">
         <v>32</v>
       </c>
+      <c r="Q55" t="s">
+        <v>150</v>
+      </c>
+      <c r="S55" s="1">
+        <v>45869</v>
+      </c>
       <c r="T55" s="1">
-        <v>45768</v>
+        <v>45716</v>
+      </c>
+      <c r="U55" s="1">
+        <v>45810</v>
       </c>
       <c r="W55" s="1">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="X55" s="2">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>45808</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
@@ -4864,38 +4864,17 @@
       <c r="F56" t="s">
         <v>41</v>
       </c>
-      <c r="J56" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" t="s">
-        <v>266</v>
-      </c>
-      <c r="N56" t="s">
-        <v>42</v>
-      </c>
       <c r="O56">
         <v>90113131698</v>
       </c>
       <c r="P56" t="s">
         <v>32</v>
       </c>
-      <c r="Q56" t="s">
-        <v>36</v>
-      </c>
       <c r="T56" s="1">
-        <v>45712</v>
-      </c>
-      <c r="U56" s="1">
-        <v>45712</v>
+        <v>45790</v>
       </c>
       <c r="W56" s="1">
-        <v>45717</v>
+        <v>45791</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -4906,23 +4885,26 @@
         <v>45808</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>5000</v>
       </c>
+      <c r="H57">
+        <v>10000</v>
+      </c>
       <c r="J57" t="s">
         <v>28</v>
       </c>
@@ -4935,6 +4917,9 @@
       <c r="M57" t="s">
         <v>266</v>
       </c>
+      <c r="N57" t="s">
+        <v>31</v>
+      </c>
       <c r="O57">
         <v>90113131698</v>
       </c>
@@ -4942,10 +4927,13 @@
         <v>32</v>
       </c>
       <c r="T57" s="1">
-        <v>45701</v>
+        <v>45664</v>
+      </c>
+      <c r="V57" s="1">
+        <v>45748</v>
       </c>
       <c r="W57" s="1">
-        <v>45804</v>
+        <v>45749</v>
       </c>
       <c r="X57" s="2">
         <v>0</v>
@@ -4956,25 +4944,25 @@
         <v>45808</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G58">
-        <v>10557</v>
+        <v>7000</v>
       </c>
       <c r="H58">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="J58" t="s">
         <v>28</v>
@@ -4982,9 +4970,15 @@
       <c r="K58" t="s">
         <v>29</v>
       </c>
+      <c r="L58" t="s">
+        <v>75</v>
+      </c>
       <c r="M58" t="s">
         <v>266</v>
       </c>
+      <c r="N58" t="s">
+        <v>42</v>
+      </c>
       <c r="O58">
         <v>90113131698</v>
       </c>
@@ -4992,16 +4986,13 @@
         <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>150</v>
-      </c>
-      <c r="S58" s="1">
-        <v>45869</v>
+        <v>117</v>
       </c>
       <c r="T58" s="1">
         <v>45716</v>
       </c>
       <c r="U58" s="1">
-        <v>45810</v>
+        <v>45699</v>
       </c>
       <c r="W58" s="1">
         <v>45749</v>
@@ -5015,19 +5006,34 @@
         <v>45808</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G59">
+        <v>2500</v>
+      </c>
+      <c r="H59">
+        <v>15000</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" t="s">
+        <v>69</v>
       </c>
       <c r="O59">
         <v>90113131698</v>
@@ -5035,11 +5041,14 @@
       <c r="P59" t="s">
         <v>32</v>
       </c>
+      <c r="Q59" t="s">
+        <v>88</v>
+      </c>
       <c r="T59" s="1">
-        <v>45790</v>
+        <v>45814</v>
       </c>
       <c r="W59" s="1">
-        <v>45791</v>
+        <v>45815</v>
       </c>
       <c r="X59" s="2">
         <v>0</v>
@@ -5050,10 +5059,10 @@
         <v>45808</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -5062,13 +5071,13 @@
         <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G60">
-        <v>5000</v>
+        <v>5382</v>
       </c>
       <c r="H60">
-        <v>10000</v>
+        <v>9286</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
@@ -5080,10 +5089,10 @@
         <v>30</v>
       </c>
       <c r="M60" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N60" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O60">
         <v>90113131698</v>
@@ -5091,11 +5100,17 @@
       <c r="P60" t="s">
         <v>32</v>
       </c>
+      <c r="Q60" t="s">
+        <v>132</v>
+      </c>
+      <c r="S60" s="1">
+        <v>45789</v>
+      </c>
       <c r="T60" s="1">
-        <v>45664</v>
-      </c>
-      <c r="V60" s="1">
-        <v>45748</v>
+        <v>45715</v>
+      </c>
+      <c r="U60" s="1">
+        <v>45775</v>
       </c>
       <c r="W60" s="1">
         <v>45749</v>
@@ -5109,10 +5124,10 @@
         <v>45808</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D61" t="s">
         <v>25</v>
@@ -5124,10 +5139,10 @@
         <v>45</v>
       </c>
       <c r="G61">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="H61">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
@@ -5136,7 +5151,7 @@
         <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M61" t="s">
         <v>266</v>
@@ -5151,16 +5166,13 @@
         <v>32</v>
       </c>
       <c r="Q61" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="T61" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U61" s="1">
-        <v>45699</v>
+        <v>45807</v>
       </c>
       <c r="W61" s="1">
-        <v>45749</v>
+        <v>45808</v>
       </c>
       <c r="X61" s="2">
         <v>0</v>
@@ -5171,49 +5183,46 @@
         <v>45808</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
-      </c>
-      <c r="G62">
-        <v>2500</v>
-      </c>
-      <c r="H62">
-        <v>15000</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
       </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
       <c r="L62" t="s">
         <v>30</v>
       </c>
       <c r="M62" t="s">
         <v>69</v>
       </c>
+      <c r="N62" t="s">
+        <v>42</v>
+      </c>
       <c r="O62">
         <v>90113131698</v>
       </c>
       <c r="P62" t="s">
         <v>32</v>
       </c>
-      <c r="Q62" t="s">
-        <v>88</v>
-      </c>
       <c r="T62" s="1">
-        <v>45814</v>
+        <v>45768</v>
       </c>
       <c r="W62" s="1">
-        <v>45815</v>
+        <v>45769</v>
       </c>
       <c r="X62" s="2">
         <v>0</v>
@@ -5224,25 +5233,19 @@
         <v>45808</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63">
-        <v>5382</v>
-      </c>
-      <c r="H63">
-        <v>9286</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s">
         <v>28</v>
@@ -5265,20 +5268,11 @@
       <c r="P63" t="s">
         <v>32</v>
       </c>
-      <c r="Q63" t="s">
-        <v>132</v>
-      </c>
-      <c r="S63" s="1">
-        <v>45789</v>
-      </c>
       <c r="T63" s="1">
-        <v>45715</v>
-      </c>
-      <c r="U63" s="1">
-        <v>45775</v>
+        <v>45768</v>
       </c>
       <c r="W63" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X63" s="2">
         <v>0</v>
@@ -5289,37 +5283,31 @@
         <v>45808</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64">
-        <v>13000</v>
-      </c>
-      <c r="H64">
-        <v>20000</v>
+        <v>27</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M64" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N64" t="s">
         <v>42</v>
@@ -5331,13 +5319,19 @@
         <v>32</v>
       </c>
       <c r="Q64" t="s">
-        <v>209</v>
+        <v>76</v>
+      </c>
+      <c r="R64" s="1">
+        <v>45740</v>
       </c>
       <c r="T64" s="1">
-        <v>45807</v>
+        <v>45694</v>
+      </c>
+      <c r="U64" s="1">
+        <v>45701</v>
       </c>
       <c r="W64" s="1">
-        <v>45808</v>
+        <v>45717</v>
       </c>
       <c r="X64" s="2">
         <v>0</v>
@@ -5348,16 +5342,16 @@
         <v>45808</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -5368,14 +5362,8 @@
       <c r="K65" t="s">
         <v>29</v>
       </c>
-      <c r="L65" t="s">
-        <v>30</v>
-      </c>
       <c r="M65" t="s">
-        <v>69</v>
-      </c>
-      <c r="N65" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O65">
         <v>90113131698</v>
@@ -5383,11 +5371,14 @@
       <c r="P65" t="s">
         <v>32</v>
       </c>
+      <c r="Q65" t="s">
+        <v>36</v>
+      </c>
       <c r="T65" s="1">
-        <v>45768</v>
+        <v>45701</v>
       </c>
       <c r="W65" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X65" s="2">
         <v>0</v>
@@ -5398,34 +5389,25 @@
         <v>45808</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
       </c>
-      <c r="J66" t="s">
-        <v>28</v>
-      </c>
-      <c r="K66" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" t="s">
-        <v>30</v>
+      <c r="H66">
+        <v>10000</v>
       </c>
       <c r="M66" t="s">
-        <v>69</v>
-      </c>
-      <c r="N66" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O66">
         <v>90113131698</v>
@@ -5448,13 +5430,13 @@
         <v>45808</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
         <v>59</v>
@@ -5468,6 +5450,9 @@
       <c r="K67" t="s">
         <v>29</v>
       </c>
+      <c r="L67" t="s">
+        <v>30</v>
+      </c>
       <c r="M67" t="s">
         <v>266</v>
       </c>
@@ -5478,10 +5463,13 @@
         <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="T67" s="1">
-        <v>45701</v>
+        <v>45712</v>
+      </c>
+      <c r="U67" s="1">
+        <v>45712</v>
       </c>
       <c r="W67" s="1">
         <v>45717</v>
@@ -5495,10 +5483,10 @@
         <v>45808</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
@@ -5507,10 +5495,22 @@
         <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>8000</v>
+      </c>
+      <c r="J68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" t="s">
+        <v>75</v>
       </c>
       <c r="M68" t="s">
         <v>266</v>
@@ -5521,11 +5521,20 @@
       <c r="P68" t="s">
         <v>32</v>
       </c>
+      <c r="Q68" t="s">
+        <v>102</v>
+      </c>
+      <c r="S68" s="1">
+        <v>45869</v>
+      </c>
       <c r="T68" s="1">
-        <v>45768</v>
+        <v>45716</v>
+      </c>
+      <c r="U68" s="1">
+        <v>45691</v>
       </c>
       <c r="W68" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X68" s="2">
         <v>0</v>
@@ -5536,19 +5545,19 @@
         <v>45808</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>7500</v>
       </c>
       <c r="J69" t="s">
         <v>28</v>
@@ -5562,6 +5571,9 @@
       <c r="M69" t="s">
         <v>266</v>
       </c>
+      <c r="N69" t="s">
+        <v>42</v>
+      </c>
       <c r="O69">
         <v>90113131698</v>
       </c>
@@ -5569,14 +5581,14 @@
         <v>32</v>
       </c>
       <c r="Q69" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="R69" s="1">
+        <v>45740</v>
       </c>
       <c r="T69" s="1">
         <v>45712</v>
       </c>
-      <c r="U69" s="1">
-        <v>45712</v>
-      </c>
       <c r="W69" s="1">
         <v>45717</v>
       </c>
@@ -5589,37 +5601,37 @@
         <v>45808</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
         <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>8000</v>
+        <v>652.42999999999995</v>
       </c>
       <c r="J70" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="K70" t="s">
+        <v>68</v>
       </c>
       <c r="L70" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M70" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N70" t="s">
+        <v>31</v>
       </c>
       <c r="O70">
         <v>90113131698</v>
@@ -5627,20 +5639,8 @@
       <c r="P70" t="s">
         <v>32</v>
       </c>
-      <c r="Q70" t="s">
-        <v>102</v>
-      </c>
-      <c r="S70" s="1">
-        <v>45869</v>
-      </c>
       <c r="T70" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U70" s="1">
-        <v>45691</v>
-      </c>
-      <c r="W70" s="1">
-        <v>45717</v>
+        <v>45832</v>
       </c>
       <c r="X70" s="2">
         <v>0</v>
@@ -5651,22 +5651,19 @@
         <v>45808</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71">
-        <v>652.42999999999995</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s">
         <v>74</v>
@@ -5680,9 +5677,6 @@
       <c r="M71" t="s">
         <v>69</v>
       </c>
-      <c r="N71" t="s">
-        <v>31</v>
-      </c>
       <c r="O71">
         <v>90113131698</v>
       </c>
@@ -5701,19 +5695,25 @@
         <v>45808</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="G72">
+        <v>619.94000000000005</v>
+      </c>
+      <c r="H72">
+        <v>350</v>
       </c>
       <c r="J72" t="s">
         <v>74</v>
@@ -5745,10 +5745,10 @@
         <v>45808</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -5757,13 +5757,7 @@
         <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73">
-        <v>619.94000000000005</v>
-      </c>
-      <c r="H73">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="J73" t="s">
         <v>74</v>
@@ -5777,6 +5771,9 @@
       <c r="M73" t="s">
         <v>69</v>
       </c>
+      <c r="N73" t="s">
+        <v>31</v>
+      </c>
       <c r="O73">
         <v>90113131698</v>
       </c>
@@ -5795,10 +5792,10 @@
         <v>45808</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
         <v>200</v>
@@ -5809,6 +5806,12 @@
       <c r="F74" t="s">
         <v>60</v>
       </c>
+      <c r="G74">
+        <v>1588.04</v>
+      </c>
+      <c r="H74">
+        <v>62164</v>
+      </c>
       <c r="J74" t="s">
         <v>74</v>
       </c>
@@ -5842,25 +5845,19 @@
         <v>45808</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
-      </c>
-      <c r="G75">
-        <v>1588.04</v>
-      </c>
-      <c r="H75">
-        <v>62164</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s">
         <v>74</v>
@@ -5869,14 +5866,11 @@
         <v>68</v>
       </c>
       <c r="L75" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M75" t="s">
         <v>69</v>
       </c>
-      <c r="N75" t="s">
-        <v>31</v>
-      </c>
       <c r="O75">
         <v>90113131698</v>
       </c>
@@ -5895,19 +5889,25 @@
         <v>45808</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="G76">
+        <v>119</v>
+      </c>
+      <c r="H76">
+        <v>714.11</v>
       </c>
       <c r="J76" t="s">
         <v>74</v>
@@ -5916,7 +5916,7 @@
         <v>68</v>
       </c>
       <c r="L76" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M76" t="s">
         <v>69</v>
@@ -5939,10 +5939,10 @@
         <v>45808</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
         <v>200</v>
@@ -5954,10 +5954,7 @@
         <v>81</v>
       </c>
       <c r="G77">
-        <v>119</v>
-      </c>
-      <c r="H77">
-        <v>714.11</v>
+        <v>2055.4899999999998</v>
       </c>
       <c r="J77" t="s">
         <v>74</v>
@@ -5971,6 +5968,9 @@
       <c r="M77" t="s">
         <v>69</v>
       </c>
+      <c r="N77" t="s">
+        <v>31</v>
+      </c>
       <c r="O77">
         <v>90113131698</v>
       </c>
@@ -5989,37 +5989,34 @@
         <v>45808</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
         <v>59</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G78">
-        <v>2055.4899999999998</v>
+        <v>4000</v>
+      </c>
+      <c r="H78">
+        <v>14000</v>
+      </c>
+      <c r="I78">
+        <v>20000</v>
       </c>
       <c r="J78" t="s">
-        <v>74</v>
-      </c>
-      <c r="K78" t="s">
-        <v>68</v>
-      </c>
-      <c r="L78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M78" t="s">
-        <v>69</v>
-      </c>
-      <c r="N78" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="O78">
         <v>90113131698</v>
@@ -6027,8 +6024,20 @@
       <c r="P78" t="s">
         <v>32</v>
       </c>
+      <c r="Q78" t="s">
+        <v>36</v>
+      </c>
+      <c r="S78" s="1">
+        <v>45869</v>
+      </c>
       <c r="T78" s="1">
-        <v>45832</v>
+        <v>45747</v>
+      </c>
+      <c r="U78" s="1">
+        <v>45810</v>
+      </c>
+      <c r="W78" s="1">
+        <v>45785</v>
       </c>
       <c r="X78" s="2">
         <v>0</v>
@@ -6039,34 +6048,28 @@
         <v>45808</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79">
-        <v>4000</v>
-      </c>
-      <c r="H79">
-        <v>14000</v>
-      </c>
-      <c r="I79">
-        <v>20000</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
       </c>
+      <c r="K79" t="s">
+        <v>29</v>
+      </c>
       <c r="M79" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="O79">
         <v>90113131698</v>
@@ -6074,20 +6077,11 @@
       <c r="P79" t="s">
         <v>32</v>
       </c>
-      <c r="Q79" t="s">
-        <v>36</v>
-      </c>
-      <c r="S79" s="1">
-        <v>45869</v>
-      </c>
       <c r="T79" s="1">
-        <v>45747</v>
-      </c>
-      <c r="U79" s="1">
-        <v>45810</v>
+        <v>45757</v>
       </c>
       <c r="W79" s="1">
-        <v>45785</v>
+        <v>45758</v>
       </c>
       <c r="X79" s="2">
         <v>0</v>
@@ -6098,13 +6092,13 @@
         <v>45808</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
         <v>59</v>
@@ -6112,14 +6106,23 @@
       <c r="F80" t="s">
         <v>41</v>
       </c>
+      <c r="G80">
+        <v>5000</v>
+      </c>
       <c r="J80" t="s">
         <v>28</v>
       </c>
       <c r="K80" t="s">
         <v>29</v>
       </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
       <c r="M80" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="N80" t="s">
+        <v>42</v>
       </c>
       <c r="O80">
         <v>90113131698</v>
@@ -6127,11 +6130,14 @@
       <c r="P80" t="s">
         <v>32</v>
       </c>
+      <c r="Q80" t="s">
+        <v>36</v>
+      </c>
       <c r="T80" s="1">
-        <v>45757</v>
+        <v>45701</v>
       </c>
       <c r="W80" s="1">
-        <v>45758</v>
+        <v>45749</v>
       </c>
       <c r="X80" s="2">
         <v>0</v>
@@ -6142,23 +6148,20 @@
         <v>45808</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
       </c>
-      <c r="G81">
-        <v>5000</v>
-      </c>
       <c r="J81" t="s">
         <v>28</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>30</v>
       </c>
       <c r="M81" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N81" t="s">
         <v>42</v>
@@ -6180,14 +6183,11 @@
       <c r="P81" t="s">
         <v>32</v>
       </c>
-      <c r="Q81" t="s">
-        <v>36</v>
-      </c>
       <c r="T81" s="1">
-        <v>45701</v>
+        <v>45768</v>
       </c>
       <c r="W81" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X81" s="2">
         <v>0</v>
@@ -6198,19 +6198,25 @@
         <v>45808</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>14000</v>
       </c>
       <c r="J82" t="s">
         <v>28</v>
@@ -6219,13 +6225,13 @@
         <v>29</v>
       </c>
       <c r="L82" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M82" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="N82" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O82">
         <v>90113131698</v>
@@ -6233,11 +6239,17 @@
       <c r="P82" t="s">
         <v>32</v>
       </c>
+      <c r="Q82" t="s">
+        <v>135</v>
+      </c>
+      <c r="S82" s="1">
+        <v>45791</v>
+      </c>
       <c r="T82" s="1">
-        <v>45768</v>
+        <v>45715</v>
       </c>
       <c r="W82" s="1">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="X82" s="2">
         <v>0</v>
@@ -6248,10 +6260,10 @@
         <v>45808</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
         <v>25</v>
@@ -6260,13 +6272,10 @@
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>14000</v>
+        <v>1777</v>
       </c>
       <c r="J83" t="s">
         <v>28</v>
@@ -6280,9 +6289,6 @@
       <c r="M83" t="s">
         <v>266</v>
       </c>
-      <c r="N83" t="s">
-        <v>31</v>
-      </c>
       <c r="O83">
         <v>90113131698</v>
       </c>
@@ -6292,14 +6298,17 @@
       <c r="Q83" t="s">
         <v>135</v>
       </c>
+      <c r="R83" s="1">
+        <v>45807</v>
+      </c>
       <c r="S83" s="1">
-        <v>45791</v>
+        <v>45814</v>
       </c>
       <c r="T83" s="1">
-        <v>45715</v>
+        <v>45814</v>
       </c>
       <c r="W83" s="1">
-        <v>45749</v>
+        <v>45815</v>
       </c>
       <c r="X83" s="2">
         <v>0</v>
@@ -6653,7 +6662,7 @@
         <v>45749</v>
       </c>
       <c r="X89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6718,7 +6727,7 @@
         <v>45772</v>
       </c>
       <c r="X90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -7073,9 +7082,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X96">
-    <sortState ref="A2:X96">
-      <sortCondition descending="1" ref="R1:R96"/>
+  <autoFilter ref="A1:X96" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X96">
+      <sortCondition ref="C1:C96"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
+++ b/src/b4d_pbi_executive_dashboard/src/b4d_clickup_mayo_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\b4d\projects\b4d_analytics\src\b4d_pbi_executive_dashboard\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471CEF6-479D-4031-946C-B35CC1C4584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BA9198-B6AD-4C7E-B882-BE72AB1BB264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="273">
   <si>
     <t>fact_date</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>ENTEL</t>
-  </si>
-  <si>
-    <t>868e8d6u2</t>
   </si>
   <si>
     <t>868e8dwkf</t>
@@ -1687,16 +1684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X96" sqref="X96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
@@ -1705,7 +1702,8 @@
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="2"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1779,7 +1777,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1879,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N3" t="s">
         <v>42</v>
@@ -2050,7 +2048,7 @@
         <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -2109,7 +2107,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -2233,7 +2231,7 @@
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
@@ -2309,7 +2307,7 @@
         <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
@@ -2333,7 +2331,7 @@
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O11">
         <v>90113131698</v>
@@ -2648,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -2866,7 +2864,7 @@
         <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N21" t="s">
         <v>42</v>
@@ -2895,10 +2893,10 @@
         <v>45808</v>
       </c>
       <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="s">
         <v>231</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -2945,10 +2943,10 @@
         <v>45808</v>
       </c>
       <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
         <v>226</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -2975,7 +2973,7 @@
         <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O23">
         <v>90113131698</v>
@@ -2984,7 +2982,7 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T23" s="1">
         <v>45814</v>
@@ -3001,10 +2999,10 @@
         <v>45808</v>
       </c>
       <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
         <v>229</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
@@ -3075,7 +3073,7 @@
         <v>30</v>
       </c>
       <c r="M25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s">
         <v>42</v>
@@ -3107,7 +3105,7 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -3161,7 +3159,7 @@
         <v>45749</v>
       </c>
       <c r="X26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -3169,16 +3167,16 @@
         <v>45808</v>
       </c>
       <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" t="s">
         <v>239</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>240</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>241</v>
-      </c>
-      <c r="E27" t="s">
-        <v>242</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -3281,7 +3279,7 @@
         <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
         <v>73</v>
@@ -3349,7 +3347,7 @@
         <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s">
         <v>42</v>
@@ -3414,7 +3412,7 @@
         <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s">
         <v>42</v>
@@ -3446,16 +3444,16 @@
         <v>45808</v>
       </c>
       <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
         <v>254</v>
       </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
       <c r="D32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" t="s">
         <v>241</v>
-      </c>
-      <c r="E32" t="s">
-        <v>242</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
@@ -3470,7 +3468,7 @@
         <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O32">
         <v>90113131698</v>
@@ -3520,7 +3518,7 @@
         <v>30</v>
       </c>
       <c r="M33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N33" t="s">
         <v>42</v>
@@ -3576,7 +3574,7 @@
         <v>30</v>
       </c>
       <c r="M34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s">
         <v>42</v>
@@ -3635,7 +3633,7 @@
         <v>30</v>
       </c>
       <c r="M35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N35" t="s">
         <v>31</v>
@@ -3700,7 +3698,7 @@
         <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N36" t="s">
         <v>42</v>
@@ -3815,7 +3813,7 @@
         <v>30</v>
       </c>
       <c r="M38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s">
         <v>42</v>
@@ -3847,13 +3845,13 @@
         <v>45808</v>
       </c>
       <c r="B39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" t="s">
         <v>219</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>220</v>
-      </c>
-      <c r="D39" t="s">
-        <v>221</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
@@ -3868,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N39" t="s">
         <v>42</v>
@@ -3903,7 +3901,7 @@
         <v>45808</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
         <v>216</v>
@@ -3915,10 +3913,10 @@
         <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I40">
-        <v>1283400</v>
+        <v>1328400</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -3929,6 +3927,9 @@
       <c r="L40" t="s">
         <v>30</v>
       </c>
+      <c r="M40" t="s">
+        <v>265</v>
+      </c>
       <c r="N40" t="s">
         <v>31</v>
       </c>
@@ -3941,8 +3942,8 @@
       <c r="Q40" t="s">
         <v>217</v>
       </c>
-      <c r="R40" s="1">
-        <v>45807</v>
+      <c r="S40" s="1">
+        <v>45869</v>
       </c>
       <c r="T40" s="1">
         <v>45813</v>
@@ -3965,22 +3966,28 @@
         <v>45808</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="G41">
+        <v>18000</v>
+      </c>
+      <c r="H41">
+        <v>25000</v>
       </c>
       <c r="I41">
-        <v>1328400</v>
+        <v>5000</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
@@ -3992,7 +3999,7 @@
         <v>30</v>
       </c>
       <c r="M41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N41" t="s">
         <v>31</v>
@@ -4004,22 +4011,13 @@
         <v>32</v>
       </c>
       <c r="Q41" t="s">
-        <v>217</v>
-      </c>
-      <c r="S41" s="1">
-        <v>45869</v>
+        <v>144</v>
       </c>
       <c r="T41" s="1">
-        <v>45813</v>
-      </c>
-      <c r="U41" s="1">
-        <v>45838</v>
-      </c>
-      <c r="V41" s="1">
-        <v>45748</v>
+        <v>45807</v>
       </c>
       <c r="W41" s="1">
-        <v>45814</v>
+        <v>45808</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -4030,10 +4028,10 @@
         <v>45808</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -4045,13 +4043,13 @@
         <v>81</v>
       </c>
       <c r="G42">
-        <v>18000</v>
+        <v>38261</v>
       </c>
       <c r="H42">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>28</v>
@@ -4063,7 +4061,7 @@
         <v>30</v>
       </c>
       <c r="M42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N42" t="s">
         <v>31</v>
@@ -4092,10 +4090,10 @@
         <v>45808</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -4104,16 +4102,16 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="G43">
-        <v>38261</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4135</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>4135</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
@@ -4125,10 +4123,7 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>266</v>
-      </c>
-      <c r="N43" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="O43">
         <v>90113131698</v>
@@ -4139,8 +4134,14 @@
       <c r="Q43" t="s">
         <v>144</v>
       </c>
+      <c r="R43" s="1">
+        <v>45807</v>
+      </c>
       <c r="T43" s="1">
-        <v>45807</v>
+        <v>45716</v>
+      </c>
+      <c r="U43" s="1">
+        <v>45835</v>
       </c>
       <c r="W43" s="1">
         <v>45808</v>
@@ -4154,10 +4155,10 @@
         <v>45808</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -4166,16 +4167,7 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>4135</v>
-      </c>
-      <c r="I44">
-        <v>4135</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -4187,7 +4179,10 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
       </c>
       <c r="O44">
         <v>90113131698</v>
@@ -4196,22 +4191,19 @@
         <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>144</v>
-      </c>
-      <c r="R44" s="1">
-        <v>45807</v>
+        <v>40</v>
       </c>
       <c r="T44" s="1">
-        <v>45716</v>
+        <v>45664</v>
       </c>
       <c r="U44" s="1">
-        <v>45835</v>
+        <v>45723</v>
       </c>
       <c r="W44" s="1">
-        <v>45808</v>
+        <v>45717</v>
       </c>
       <c r="X44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -4219,10 +4211,10 @@
         <v>45808</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -4231,7 +4223,13 @@
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>17890</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
@@ -4240,10 +4238,10 @@
         <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M45" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N45" t="s">
         <v>42</v>
@@ -4255,16 +4253,16 @@
         <v>32</v>
       </c>
       <c r="Q45" t="s">
-        <v>40</v>
+        <v>157</v>
+      </c>
+      <c r="S45" s="1">
+        <v>45820</v>
       </c>
       <c r="T45" s="1">
-        <v>45664</v>
-      </c>
-      <c r="U45" s="1">
-        <v>45723</v>
+        <v>45747</v>
       </c>
       <c r="W45" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -4275,40 +4273,37 @@
         <v>45808</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G46">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="H46">
-        <v>17890</v>
+        <v>15000</v>
+      </c>
+      <c r="I46">
+        <v>3000</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
-      <c r="K46" t="s">
-        <v>29</v>
-      </c>
       <c r="L46" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M46" t="s">
-        <v>69</v>
-      </c>
-      <c r="N46" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="O46">
         <v>90113131698</v>
@@ -4316,17 +4311,14 @@
       <c r="P46" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" t="s">
-        <v>157</v>
-      </c>
       <c r="S46" s="1">
-        <v>45820</v>
+        <v>45869</v>
       </c>
       <c r="T46" s="1">
-        <v>45747</v>
+        <v>45814</v>
       </c>
       <c r="W46" s="1">
-        <v>45749</v>
+        <v>45815</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -4337,37 +4329,40 @@
         <v>45808</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
         <v>81</v>
       </c>
       <c r="G47">
-        <v>8000</v>
+        <v>15480</v>
       </c>
       <c r="H47">
-        <v>15000</v>
-      </c>
-      <c r="I47">
-        <v>3000</v>
+        <v>16416</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
       </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
       <c r="L47" t="s">
         <v>30</v>
       </c>
       <c r="M47" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="N47" t="s">
+        <v>42</v>
       </c>
       <c r="O47">
         <v>90113131698</v>
@@ -4375,14 +4370,20 @@
       <c r="P47" t="s">
         <v>32</v>
       </c>
+      <c r="Q47" t="s">
+        <v>122</v>
+      </c>
       <c r="S47" s="1">
-        <v>45869</v>
+        <v>45799</v>
       </c>
       <c r="T47" s="1">
-        <v>45814</v>
+        <v>45715</v>
+      </c>
+      <c r="U47" s="1">
+        <v>45714</v>
       </c>
       <c r="W47" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -4393,10 +4394,10 @@
         <v>45808</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -4405,13 +4406,13 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G48">
-        <v>15480</v>
+        <v>7000</v>
       </c>
       <c r="H48">
-        <v>16416</v>
+        <v>15000</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -4423,7 +4424,7 @@
         <v>30</v>
       </c>
       <c r="M48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N48" t="s">
         <v>42</v>
@@ -4435,19 +4436,10 @@
         <v>32</v>
       </c>
       <c r="Q48" t="s">
-        <v>122</v>
-      </c>
-      <c r="S48" s="1">
-        <v>45799</v>
+        <v>244</v>
       </c>
       <c r="T48" s="1">
-        <v>45715</v>
-      </c>
-      <c r="U48" s="1">
-        <v>45714</v>
-      </c>
-      <c r="W48" s="1">
-        <v>45717</v>
+        <v>45819</v>
       </c>
       <c r="X48" s="2">
         <v>0</v>
@@ -4458,10 +4450,10 @@
         <v>45808</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -4473,10 +4465,10 @@
         <v>45</v>
       </c>
       <c r="G49">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="H49">
-        <v>15000</v>
+        <v>700</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -4488,7 +4480,7 @@
         <v>30</v>
       </c>
       <c r="M49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N49" t="s">
         <v>42</v>
@@ -4500,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T49" s="1">
         <v>45819</v>
@@ -4514,10 +4506,10 @@
         <v>45808</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -4526,13 +4518,13 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G50">
-        <v>4500</v>
+        <v>22781.85</v>
       </c>
       <c r="H50">
-        <v>700</v>
+        <v>37618.769999999997</v>
       </c>
       <c r="J50" t="s">
         <v>28</v>
@@ -4544,10 +4536,10 @@
         <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N50" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O50">
         <v>90113131698</v>
@@ -4556,10 +4548,19 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>245</v>
+        <v>24</v>
+      </c>
+      <c r="R50" s="1">
+        <v>45740</v>
       </c>
       <c r="T50" s="1">
-        <v>45819</v>
+        <v>45662</v>
+      </c>
+      <c r="U50" s="1">
+        <v>45594</v>
+      </c>
+      <c r="W50" s="1">
+        <v>45717</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -4570,25 +4571,19 @@
         <v>45808</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51">
-        <v>22781.85</v>
-      </c>
-      <c r="H51">
-        <v>37618.769999999997</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
@@ -4600,10 +4595,10 @@
         <v>30</v>
       </c>
       <c r="M51" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N51" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O51">
         <v>90113131698</v>
@@ -4611,20 +4606,11 @@
       <c r="P51" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="1">
-        <v>45740</v>
-      </c>
       <c r="T51" s="1">
-        <v>45662</v>
-      </c>
-      <c r="U51" s="1">
-        <v>45594</v>
+        <v>45768</v>
       </c>
       <c r="W51" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X51" s="2">
         <v>0</v>
@@ -4635,16 +4621,16 @@
         <v>45808</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -4659,7 +4645,7 @@
         <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="N52" t="s">
         <v>42</v>
@@ -4670,11 +4656,17 @@
       <c r="P52" t="s">
         <v>32</v>
       </c>
+      <c r="Q52" t="s">
+        <v>36</v>
+      </c>
       <c r="T52" s="1">
-        <v>45768</v>
+        <v>45712</v>
+      </c>
+      <c r="U52" s="1">
+        <v>45712</v>
       </c>
       <c r="W52" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -4685,19 +4677,22 @@
         <v>45808</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="G53">
+        <v>5000</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -4709,10 +4704,7 @@
         <v>30</v>
       </c>
       <c r="M53" t="s">
-        <v>266</v>
-      </c>
-      <c r="N53" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="O53">
         <v>90113131698</v>
@@ -4720,17 +4712,11 @@
       <c r="P53" t="s">
         <v>32</v>
       </c>
-      <c r="Q53" t="s">
-        <v>36</v>
-      </c>
       <c r="T53" s="1">
-        <v>45712</v>
-      </c>
-      <c r="U53" s="1">
-        <v>45712</v>
+        <v>45701</v>
       </c>
       <c r="W53" s="1">
-        <v>45717</v>
+        <v>45804</v>
       </c>
       <c r="X53" s="2">
         <v>0</v>
@@ -4741,10 +4727,10 @@
         <v>45808</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
         <v>67</v>
@@ -4753,10 +4739,13 @@
         <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="G54">
-        <v>5000</v>
+        <v>10557</v>
+      </c>
+      <c r="H54">
+        <v>10500</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -4764,11 +4753,8 @@
       <c r="K54" t="s">
         <v>29</v>
       </c>
-      <c r="L54" t="s">
-        <v>30</v>
-      </c>
       <c r="M54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O54">
         <v>90113131698</v>
@@ -4776,11 +4762,20 @@
       <c r="P54" t="s">
         <v>32</v>
       </c>
+      <c r="Q54" t="s">
+        <v>150</v>
+      </c>
+      <c r="S54" s="1">
+        <v>45869</v>
+      </c>
       <c r="T54" s="1">
-        <v>45701</v>
+        <v>45716</v>
+      </c>
+      <c r="U54" s="1">
+        <v>45810</v>
       </c>
       <c r="W54" s="1">
-        <v>45804</v>
+        <v>45749</v>
       </c>
       <c r="X54" s="2">
         <v>0</v>
@@ -4791,34 +4786,19 @@
         <v>45808</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="E55" t="s">
         <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55">
-        <v>10557</v>
-      </c>
-      <c r="H55">
-        <v>10500</v>
-      </c>
-      <c r="J55" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M55" t="s">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="O55">
         <v>90113131698</v>
@@ -4826,20 +4806,11 @@
       <c r="P55" t="s">
         <v>32</v>
       </c>
-      <c r="Q55" t="s">
-        <v>150</v>
-      </c>
-      <c r="S55" s="1">
-        <v>45869</v>
-      </c>
       <c r="T55" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U55" s="1">
-        <v>45810</v>
+        <v>45790</v>
       </c>
       <c r="W55" s="1">
-        <v>45749</v>
+        <v>45791</v>
       </c>
       <c r="X55" s="2">
         <v>0</v>
@@ -4850,19 +4821,40 @@
         <v>45808</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="G56">
+        <v>5000</v>
+      </c>
+      <c r="H56">
+        <v>10000</v>
+      </c>
+      <c r="J56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" t="s">
+        <v>265</v>
+      </c>
+      <c r="N56" t="s">
+        <v>31</v>
       </c>
       <c r="O56">
         <v>90113131698</v>
@@ -4871,10 +4863,13 @@
         <v>32</v>
       </c>
       <c r="T56" s="1">
-        <v>45790</v>
+        <v>45664</v>
+      </c>
+      <c r="V56" s="1">
+        <v>45748</v>
       </c>
       <c r="W56" s="1">
-        <v>45791</v>
+        <v>45749</v>
       </c>
       <c r="X56" s="2">
         <v>0</v>
@@ -4885,10 +4880,10 @@
         <v>45808</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
@@ -4897,13 +4892,13 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G57">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="H57">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="J57" t="s">
         <v>28</v>
@@ -4912,13 +4907,13 @@
         <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N57" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O57">
         <v>90113131698</v>
@@ -4926,11 +4921,14 @@
       <c r="P57" t="s">
         <v>32</v>
       </c>
+      <c r="Q57" t="s">
+        <v>117</v>
+      </c>
       <c r="T57" s="1">
-        <v>45664</v>
-      </c>
-      <c r="V57" s="1">
-        <v>45748</v>
+        <v>45716</v>
+      </c>
+      <c r="U57" s="1">
+        <v>45699</v>
       </c>
       <c r="W57" s="1">
         <v>45749</v>
@@ -4944,40 +4942,34 @@
         <v>45808</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
         <v>45</v>
       </c>
       <c r="G58">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="H58">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="J58" t="s">
         <v>28</v>
       </c>
-      <c r="K58" t="s">
-        <v>29</v>
-      </c>
       <c r="L58" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M58" t="s">
-        <v>266</v>
-      </c>
-      <c r="N58" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="O58">
         <v>90113131698</v>
@@ -4986,16 +4978,13 @@
         <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="T58" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U58" s="1">
-        <v>45699</v>
+        <v>45814</v>
       </c>
       <c r="W58" s="1">
-        <v>45749</v>
+        <v>45815</v>
       </c>
       <c r="X58" s="2">
         <v>0</v>
@@ -5006,35 +4995,41 @@
         <v>45808</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G59">
-        <v>2500</v>
+        <v>5382</v>
       </c>
       <c r="H59">
-        <v>15000</v>
+        <v>9286</v>
       </c>
       <c r="J59" t="s">
         <v>28</v>
       </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
       <c r="L59" t="s">
         <v>30</v>
       </c>
       <c r="M59" t="s">
         <v>69</v>
       </c>
+      <c r="N59" t="s">
+        <v>42</v>
+      </c>
       <c r="O59">
         <v>90113131698</v>
       </c>
@@ -5042,13 +5037,19 @@
         <v>32</v>
       </c>
       <c r="Q59" t="s">
-        <v>88</v>
+        <v>132</v>
+      </c>
+      <c r="S59" s="1">
+        <v>45789</v>
       </c>
       <c r="T59" s="1">
-        <v>45814</v>
+        <v>45715</v>
+      </c>
+      <c r="U59" s="1">
+        <v>45775</v>
       </c>
       <c r="W59" s="1">
-        <v>45815</v>
+        <v>45749</v>
       </c>
       <c r="X59" s="2">
         <v>0</v>
@@ -5059,10 +5060,10 @@
         <v>45808</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -5071,13 +5072,13 @@
         <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G60">
-        <v>5382</v>
+        <v>13000</v>
       </c>
       <c r="H60">
-        <v>9286</v>
+        <v>20000</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
@@ -5089,7 +5090,7 @@
         <v>30</v>
       </c>
       <c r="M60" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="N60" t="s">
         <v>42</v>
@@ -5101,19 +5102,13 @@
         <v>32</v>
       </c>
       <c r="Q60" t="s">
-        <v>132</v>
-      </c>
-      <c r="S60" s="1">
-        <v>45789</v>
+        <v>209</v>
       </c>
       <c r="T60" s="1">
-        <v>45715</v>
-      </c>
-      <c r="U60" s="1">
-        <v>45775</v>
+        <v>45807</v>
       </c>
       <c r="W60" s="1">
-        <v>45749</v>
+        <v>45808</v>
       </c>
       <c r="X60" s="2">
         <v>0</v>
@@ -5124,25 +5119,19 @@
         <v>45808</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61">
-        <v>13000</v>
-      </c>
-      <c r="H61">
-        <v>20000</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
@@ -5154,7 +5143,7 @@
         <v>30</v>
       </c>
       <c r="M61" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N61" t="s">
         <v>42</v>
@@ -5165,14 +5154,11 @@
       <c r="P61" t="s">
         <v>32</v>
       </c>
-      <c r="Q61" t="s">
-        <v>209</v>
-      </c>
       <c r="T61" s="1">
-        <v>45807</v>
+        <v>45768</v>
       </c>
       <c r="W61" s="1">
-        <v>45808</v>
+        <v>45769</v>
       </c>
       <c r="X61" s="2">
         <v>0</v>
@@ -5183,10 +5169,10 @@
         <v>45808</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
         <v>188</v>
@@ -5233,28 +5219,28 @@
         <v>45808</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J63" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M63" t="s">
         <v>69</v>
@@ -5268,11 +5254,20 @@
       <c r="P63" t="s">
         <v>32</v>
       </c>
+      <c r="Q63" t="s">
+        <v>76</v>
+      </c>
+      <c r="R63" s="1">
+        <v>45740</v>
+      </c>
       <c r="T63" s="1">
-        <v>45768</v>
+        <v>45694</v>
+      </c>
+      <c r="U63" s="1">
+        <v>45701</v>
       </c>
       <c r="W63" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X63" s="2">
         <v>0</v>
@@ -5283,34 +5278,28 @@
         <v>45808</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
         <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>68</v>
-      </c>
-      <c r="L64" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M64" t="s">
-        <v>69</v>
-      </c>
-      <c r="N64" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="O64">
         <v>90113131698</v>
@@ -5319,15 +5308,9 @@
         <v>32</v>
       </c>
       <c r="Q64" t="s">
-        <v>76</v>
-      </c>
-      <c r="R64" s="1">
-        <v>45740</v>
+        <v>36</v>
       </c>
       <c r="T64" s="1">
-        <v>45694</v>
-      </c>
-      <c r="U64" s="1">
         <v>45701</v>
       </c>
       <c r="W64" s="1">
@@ -5342,13 +5325,13 @@
         <v>45808</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
         <v>59</v>
@@ -5356,14 +5339,11 @@
       <c r="F65" t="s">
         <v>41</v>
       </c>
-      <c r="J65" t="s">
-        <v>28</v>
-      </c>
-      <c r="K65" t="s">
-        <v>29</v>
+      <c r="H65">
+        <v>10000</v>
       </c>
       <c r="M65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O65">
         <v>90113131698</v>
@@ -5371,14 +5351,11 @@
       <c r="P65" t="s">
         <v>32</v>
       </c>
-      <c r="Q65" t="s">
-        <v>36</v>
-      </c>
       <c r="T65" s="1">
-        <v>45701</v>
+        <v>45768</v>
       </c>
       <c r="W65" s="1">
-        <v>45717</v>
+        <v>45769</v>
       </c>
       <c r="X65" s="2">
         <v>0</v>
@@ -5389,13 +5366,13 @@
         <v>45808</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
         <v>59</v>
@@ -5403,11 +5380,17 @@
       <c r="F66" t="s">
         <v>41</v>
       </c>
-      <c r="H66">
-        <v>10000</v>
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" t="s">
+        <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O66">
         <v>90113131698</v>
@@ -5415,11 +5398,17 @@
       <c r="P66" t="s">
         <v>32</v>
       </c>
+      <c r="Q66" t="s">
+        <v>107</v>
+      </c>
       <c r="T66" s="1">
-        <v>45768</v>
+        <v>45712</v>
+      </c>
+      <c r="U66" s="1">
+        <v>45712</v>
       </c>
       <c r="W66" s="1">
-        <v>45769</v>
+        <v>45717</v>
       </c>
       <c r="X66" s="2">
         <v>0</v>
@@ -5430,31 +5419,37 @@
         <v>45808</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
         <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>8000</v>
       </c>
       <c r="J67" t="s">
         <v>28</v>
       </c>
-      <c r="K67" t="s">
-        <v>29</v>
-      </c>
       <c r="L67" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O67">
         <v>90113131698</v>
@@ -5463,13 +5458,16 @@
         <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="S67" s="1">
+        <v>45869</v>
       </c>
       <c r="T67" s="1">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="U67" s="1">
-        <v>45712</v>
+        <v>45691</v>
       </c>
       <c r="W67" s="1">
         <v>45717</v>
@@ -5483,37 +5481,34 @@
         <v>45808</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I68">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="J68" t="s">
         <v>28</v>
       </c>
+      <c r="K68" t="s">
+        <v>29</v>
+      </c>
       <c r="L68" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M68" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="N68" t="s">
+        <v>42</v>
       </c>
       <c r="O68">
         <v>90113131698</v>
@@ -5524,14 +5519,11 @@
       <c r="Q68" t="s">
         <v>102</v>
       </c>
-      <c r="S68" s="1">
-        <v>45869</v>
+      <c r="R68" s="1">
+        <v>45740</v>
       </c>
       <c r="T68" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U68" s="1">
-        <v>45691</v>
+        <v>45712</v>
       </c>
       <c r="W68" s="1">
         <v>45717</v>
@@ -5545,34 +5537,37 @@
         <v>45808</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69">
-        <v>7500</v>
+        <v>60</v>
+      </c>
+      <c r="G69">
+        <v>652.42999999999995</v>
       </c>
       <c r="J69" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K69" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L69" t="s">
         <v>30</v>
       </c>
       <c r="M69" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N69" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O69">
         <v>90113131698</v>
@@ -5580,17 +5575,8 @@
       <c r="P69" t="s">
         <v>32</v>
       </c>
-      <c r="Q69" t="s">
-        <v>102</v>
-      </c>
-      <c r="R69" s="1">
-        <v>45740</v>
-      </c>
       <c r="T69" s="1">
-        <v>45712</v>
-      </c>
-      <c r="W69" s="1">
-        <v>45717</v>
+        <v>45832</v>
       </c>
       <c r="X69" s="2">
         <v>0</v>
@@ -5601,22 +5587,19 @@
         <v>45808</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G70">
-        <v>652.42999999999995</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s">
         <v>74</v>
@@ -5630,9 +5613,6 @@
       <c r="M70" t="s">
         <v>69</v>
       </c>
-      <c r="N70" t="s">
-        <v>31</v>
-      </c>
       <c r="O70">
         <v>90113131698</v>
       </c>
@@ -5651,19 +5631,25 @@
         <v>45808</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="G71">
+        <v>619.94000000000005</v>
+      </c>
+      <c r="H71">
+        <v>350</v>
       </c>
       <c r="J71" t="s">
         <v>74</v>
@@ -5695,10 +5681,10 @@
         <v>45808</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
         <v>200</v>
@@ -5707,13 +5693,7 @@
         <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72">
-        <v>619.94000000000005</v>
-      </c>
-      <c r="H72">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="J72" t="s">
         <v>74</v>
@@ -5727,6 +5707,9 @@
       <c r="M72" t="s">
         <v>69</v>
       </c>
+      <c r="N72" t="s">
+        <v>31</v>
+      </c>
       <c r="O72">
         <v>90113131698</v>
       </c>
@@ -5745,10 +5728,10 @@
         <v>45808</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -5759,6 +5742,12 @@
       <c r="F73" t="s">
         <v>60</v>
       </c>
+      <c r="G73">
+        <v>1588.04</v>
+      </c>
+      <c r="H73">
+        <v>62164</v>
+      </c>
       <c r="J73" t="s">
         <v>74</v>
       </c>
@@ -5792,25 +5781,19 @@
         <v>45808</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74">
-        <v>1588.04</v>
-      </c>
-      <c r="H74">
-        <v>62164</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s">
         <v>74</v>
@@ -5819,14 +5802,11 @@
         <v>68</v>
       </c>
       <c r="L74" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M74" t="s">
         <v>69</v>
       </c>
-      <c r="N74" t="s">
-        <v>31</v>
-      </c>
       <c r="O74">
         <v>90113131698</v>
       </c>
@@ -5845,19 +5825,25 @@
         <v>45808</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="G75">
+        <v>119</v>
+      </c>
+      <c r="H75">
+        <v>714.11</v>
       </c>
       <c r="J75" t="s">
         <v>74</v>
@@ -5866,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="L75" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M75" t="s">
         <v>69</v>
@@ -5889,10 +5875,10 @@
         <v>45808</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
         <v>200</v>
@@ -5904,10 +5890,7 @@
         <v>81</v>
       </c>
       <c r="G76">
-        <v>119</v>
-      </c>
-      <c r="H76">
-        <v>714.11</v>
+        <v>2055.4899999999998</v>
       </c>
       <c r="J76" t="s">
         <v>74</v>
@@ -5921,6 +5904,9 @@
       <c r="M76" t="s">
         <v>69</v>
       </c>
+      <c r="N76" t="s">
+        <v>31</v>
+      </c>
       <c r="O76">
         <v>90113131698</v>
       </c>
@@ -5939,37 +5925,34 @@
         <v>45808</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
         <v>59</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G77">
-        <v>2055.4899999999998</v>
+        <v>4000</v>
+      </c>
+      <c r="H77">
+        <v>14000</v>
+      </c>
+      <c r="I77">
+        <v>20000</v>
       </c>
       <c r="J77" t="s">
-        <v>74</v>
-      </c>
-      <c r="K77" t="s">
-        <v>68</v>
-      </c>
-      <c r="L77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M77" t="s">
-        <v>69</v>
-      </c>
-      <c r="N77" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="O77">
         <v>90113131698</v>
@@ -5977,8 +5960,20 @@
       <c r="P77" t="s">
         <v>32</v>
       </c>
+      <c r="Q77" t="s">
+        <v>36</v>
+      </c>
+      <c r="S77" s="1">
+        <v>45869</v>
+      </c>
       <c r="T77" s="1">
-        <v>45832</v>
+        <v>45747</v>
+      </c>
+      <c r="U77" s="1">
+        <v>45810</v>
+      </c>
+      <c r="W77" s="1">
+        <v>45785</v>
       </c>
       <c r="X77" s="2">
         <v>0</v>
@@ -5989,34 +5984,28 @@
         <v>45808</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
         <v>59</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78">
-        <v>4000</v>
-      </c>
-      <c r="H78">
-        <v>14000</v>
-      </c>
-      <c r="I78">
-        <v>20000</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
       </c>
+      <c r="K78" t="s">
+        <v>29</v>
+      </c>
       <c r="M78" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="O78">
         <v>90113131698</v>
@@ -6024,20 +6013,11 @@
       <c r="P78" t="s">
         <v>32</v>
       </c>
-      <c r="Q78" t="s">
-        <v>36</v>
-      </c>
-      <c r="S78" s="1">
-        <v>45869</v>
-      </c>
       <c r="T78" s="1">
-        <v>45747</v>
-      </c>
-      <c r="U78" s="1">
-        <v>45810</v>
+        <v>45757</v>
       </c>
       <c r="W78" s="1">
-        <v>45785</v>
+        <v>45758</v>
       </c>
       <c r="X78" s="2">
         <v>0</v>
@@ -6048,13 +6028,13 @@
         <v>45808</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
         <v>59</v>
@@ -6062,14 +6042,23 @@
       <c r="F79" t="s">
         <v>41</v>
       </c>
+      <c r="G79">
+        <v>5000</v>
+      </c>
       <c r="J79" t="s">
         <v>28</v>
       </c>
       <c r="K79" t="s">
         <v>29</v>
       </c>
+      <c r="L79" t="s">
+        <v>30</v>
+      </c>
       <c r="M79" t="s">
-        <v>69</v>
+        <v>265</v>
+      </c>
+      <c r="N79" t="s">
+        <v>42</v>
       </c>
       <c r="O79">
         <v>90113131698</v>
@@ -6077,11 +6066,14 @@
       <c r="P79" t="s">
         <v>32</v>
       </c>
+      <c r="Q79" t="s">
+        <v>36</v>
+      </c>
       <c r="T79" s="1">
-        <v>45757</v>
+        <v>45701</v>
       </c>
       <c r="W79" s="1">
-        <v>45758</v>
+        <v>45749</v>
       </c>
       <c r="X79" s="2">
         <v>0</v>
@@ -6092,23 +6084,20 @@
         <v>45808</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
       </c>
-      <c r="G80">
-        <v>5000</v>
-      </c>
       <c r="J80" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6108,7 @@
         <v>30</v>
       </c>
       <c r="M80" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="N80" t="s">
         <v>42</v>
@@ -6130,14 +6119,11 @@
       <c r="P80" t="s">
         <v>32</v>
       </c>
-      <c r="Q80" t="s">
-        <v>36</v>
-      </c>
       <c r="T80" s="1">
-        <v>45701</v>
+        <v>45768</v>
       </c>
       <c r="W80" s="1">
-        <v>45749</v>
+        <v>45769</v>
       </c>
       <c r="X80" s="2">
         <v>0</v>
@@ -6148,19 +6134,25 @@
         <v>45808</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>14000</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
@@ -6169,13 +6161,13 @@
         <v>29</v>
       </c>
       <c r="L81" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M81" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="N81" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O81">
         <v>90113131698</v>
@@ -6183,11 +6175,17 @@
       <c r="P81" t="s">
         <v>32</v>
       </c>
+      <c r="Q81" t="s">
+        <v>135</v>
+      </c>
+      <c r="S81" s="1">
+        <v>45791</v>
+      </c>
       <c r="T81" s="1">
-        <v>45768</v>
+        <v>45715</v>
       </c>
       <c r="W81" s="1">
-        <v>45769</v>
+        <v>45749</v>
       </c>
       <c r="X81" s="2">
         <v>0</v>
@@ -6198,10 +6196,10 @@
         <v>45808</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
         <v>25</v>
@@ -6210,13 +6208,10 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>14000</v>
+        <v>1777</v>
       </c>
       <c r="J82" t="s">
         <v>28</v>
@@ -6228,10 +6223,7 @@
         <v>75</v>
       </c>
       <c r="M82" t="s">
-        <v>266</v>
-      </c>
-      <c r="N82" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="O82">
         <v>90113131698</v>
@@ -6242,14 +6234,17 @@
       <c r="Q82" t="s">
         <v>135</v>
       </c>
+      <c r="R82" s="1">
+        <v>45807</v>
+      </c>
       <c r="S82" s="1">
-        <v>45791</v>
+        <v>45814</v>
       </c>
       <c r="T82" s="1">
-        <v>45715</v>
+        <v>45814</v>
       </c>
       <c r="W82" s="1">
-        <v>45749</v>
+        <v>45815</v>
       </c>
       <c r="X82" s="2">
         <v>0</v>
@@ -6260,10 +6255,10 @@
         <v>45808</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" t="s">
         <v>25</v>
@@ -6272,10 +6267,10 @@
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83">
-        <v>1777</v>
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>3000</v>
       </c>
       <c r="J83" t="s">
         <v>28</v>
@@ -6284,10 +6279,13 @@
         <v>29</v>
       </c>
       <c r="L83" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M83" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="N83" t="s">
+        <v>31</v>
       </c>
       <c r="O83">
         <v>90113131698</v>
@@ -6298,12 +6296,6 @@
       <c r="Q83" t="s">
         <v>135</v>
       </c>
-      <c r="R83" s="1">
-        <v>45807</v>
-      </c>
-      <c r="S83" s="1">
-        <v>45814</v>
-      </c>
       <c r="T83" s="1">
         <v>45814</v>
       </c>
@@ -6319,37 +6311,19 @@
         <v>45808</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="H84">
-        <v>3000</v>
-      </c>
-      <c r="J84" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M84" t="s">
-        <v>266</v>
-      </c>
-      <c r="N84" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O84">
         <v>90113131698</v>
@@ -6357,17 +6331,14 @@
       <c r="P84" t="s">
         <v>32</v>
       </c>
-      <c r="Q84" t="s">
-        <v>135</v>
-      </c>
       <c r="T84" s="1">
-        <v>45814</v>
+        <v>45790</v>
       </c>
       <c r="W84" s="1">
-        <v>45815</v>
+        <v>45791</v>
       </c>
       <c r="X84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
@@ -6375,19 +6346,43 @@
         <v>45808</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>81</v>
+      </c>
+      <c r="G85">
+        <v>5328</v>
+      </c>
+      <c r="H85">
+        <v>28400</v>
+      </c>
+      <c r="I85">
+        <v>3000</v>
+      </c>
+      <c r="J85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" t="s">
+        <v>265</v>
+      </c>
+      <c r="N85" t="s">
+        <v>42</v>
       </c>
       <c r="O85">
         <v>90113131698</v>
@@ -6395,11 +6390,17 @@
       <c r="P85" t="s">
         <v>32</v>
       </c>
+      <c r="Q85" t="s">
+        <v>127</v>
+      </c>
+      <c r="S85" s="1">
+        <v>45812</v>
+      </c>
       <c r="T85" s="1">
-        <v>45790</v>
+        <v>45715</v>
       </c>
       <c r="W85" s="1">
-        <v>45791</v>
+        <v>45717</v>
       </c>
       <c r="X85" s="2">
         <v>0</v>
@@ -6410,10 +6411,10 @@
         <v>45808</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
         <v>25</v>
@@ -6425,10 +6426,10 @@
         <v>81</v>
       </c>
       <c r="G86">
-        <v>5328</v>
+        <v>1800</v>
       </c>
       <c r="H86">
-        <v>28400</v>
+        <v>2500</v>
       </c>
       <c r="I86">
         <v>3000</v>
@@ -6443,7 +6444,7 @@
         <v>30</v>
       </c>
       <c r="M86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N86" t="s">
         <v>42</v>
@@ -6455,16 +6456,16 @@
         <v>32</v>
       </c>
       <c r="Q86" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="S86" s="1">
-        <v>45812</v>
+        <v>45786</v>
       </c>
       <c r="T86" s="1">
-        <v>45715</v>
+        <v>45747</v>
       </c>
       <c r="W86" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X86" s="2">
         <v>0</v>
@@ -6475,10 +6476,10 @@
         <v>45808</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
@@ -6487,16 +6488,13 @@
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G87">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>2500</v>
-      </c>
-      <c r="I87">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>28</v>
@@ -6505,10 +6503,10 @@
         <v>29</v>
       </c>
       <c r="L87" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="M87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N87" t="s">
         <v>42</v>
@@ -6519,17 +6517,17 @@
       <c r="P87" t="s">
         <v>32</v>
       </c>
-      <c r="Q87" t="s">
-        <v>160</v>
-      </c>
       <c r="S87" s="1">
-        <v>45786</v>
+        <v>45785</v>
       </c>
       <c r="T87" s="1">
-        <v>45747</v>
+        <v>45716</v>
+      </c>
+      <c r="U87" s="1">
+        <v>45826</v>
       </c>
       <c r="W87" s="1">
-        <v>45749</v>
+        <v>45790</v>
       </c>
       <c r="X87" s="2">
         <v>0</v>
@@ -6540,10 +6538,10 @@
         <v>45808</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
@@ -6555,10 +6553,13 @@
         <v>60</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="I88">
+        <v>5000</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
@@ -6567,13 +6568,13 @@
         <v>29</v>
       </c>
       <c r="L88" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="M88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N88" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O88">
         <v>90113131698</v>
@@ -6581,17 +6582,20 @@
       <c r="P88" t="s">
         <v>32</v>
       </c>
+      <c r="Q88" t="s">
+        <v>36</v>
+      </c>
       <c r="S88" s="1">
-        <v>45785</v>
+        <v>45782</v>
       </c>
       <c r="T88" s="1">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="U88" s="1">
-        <v>45826</v>
+        <v>45772</v>
       </c>
       <c r="W88" s="1">
-        <v>45790</v>
+        <v>45749</v>
       </c>
       <c r="X88" s="2">
         <v>0</v>
@@ -6602,10 +6606,10 @@
         <v>45808</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
         <v>25</v>
@@ -6617,13 +6621,10 @@
         <v>60</v>
       </c>
       <c r="G89">
-        <v>8000</v>
+        <v>18467</v>
       </c>
       <c r="H89">
-        <v>5000</v>
-      </c>
-      <c r="I89">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="J89" t="s">
         <v>28</v>
@@ -6635,7 +6636,7 @@
         <v>30</v>
       </c>
       <c r="M89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N89" t="s">
         <v>31</v>
@@ -6650,19 +6651,19 @@
         <v>36</v>
       </c>
       <c r="S89" s="1">
-        <v>45782</v>
+        <v>45792</v>
       </c>
       <c r="T89" s="1">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="U89" s="1">
+        <v>45722</v>
+      </c>
+      <c r="W89" s="1">
         <v>45772</v>
       </c>
-      <c r="W89" s="1">
-        <v>45749</v>
-      </c>
       <c r="X89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
@@ -6670,40 +6671,31 @@
         <v>45808</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90">
-        <v>18467</v>
-      </c>
-      <c r="H90">
-        <v>40000</v>
+        <v>41</v>
       </c>
       <c r="J90" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K90" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L90" t="s">
         <v>30</v>
       </c>
       <c r="M90" t="s">
-        <v>266</v>
-      </c>
-      <c r="N90" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="O90">
         <v>90113131698</v>
@@ -6711,20 +6703,11 @@
       <c r="P90" t="s">
         <v>32</v>
       </c>
-      <c r="Q90" t="s">
-        <v>36</v>
-      </c>
-      <c r="S90" s="1">
-        <v>45792</v>
-      </c>
       <c r="T90" s="1">
-        <v>45716</v>
-      </c>
-      <c r="U90" s="1">
-        <v>45722</v>
+        <v>45694</v>
       </c>
       <c r="W90" s="1">
-        <v>45772</v>
+        <v>45717</v>
       </c>
       <c r="X90" s="2">
         <v>0</v>
@@ -6735,22 +6718,25 @@
         <v>45808</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="H91">
+        <v>21802</v>
       </c>
       <c r="J91" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="K91" t="s">
         <v>68</v>
@@ -6759,7 +6745,10 @@
         <v>30</v>
       </c>
       <c r="M91" t="s">
-        <v>266</v>
+        <v>69</v>
+      </c>
+      <c r="N91" t="s">
+        <v>42</v>
       </c>
       <c r="O91">
         <v>90113131698</v>
@@ -6767,11 +6756,20 @@
       <c r="P91" t="s">
         <v>32</v>
       </c>
+      <c r="Q91" t="s">
+        <v>36</v>
+      </c>
+      <c r="S91" s="1">
+        <v>45777</v>
+      </c>
       <c r="T91" s="1">
-        <v>45694</v>
+        <v>45715</v>
+      </c>
+      <c r="U91" s="1">
+        <v>45712</v>
       </c>
       <c r="W91" s="1">
-        <v>45717</v>
+        <v>45749</v>
       </c>
       <c r="X91" s="2">
         <v>0</v>
@@ -6782,10 +6780,10 @@
         <v>45808</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
         <v>25</v>
@@ -6794,25 +6792,31 @@
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>81</v>
+      </c>
+      <c r="G92">
+        <v>8000</v>
       </c>
       <c r="H92">
-        <v>21802</v>
+        <v>10000</v>
+      </c>
+      <c r="I92">
+        <v>5000</v>
       </c>
       <c r="J92" t="s">
         <v>28</v>
       </c>
       <c r="K92" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L92" t="s">
         <v>30</v>
       </c>
       <c r="M92" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="N92" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="O92">
         <v>90113131698</v>
@@ -6824,16 +6828,19 @@
         <v>36</v>
       </c>
       <c r="S92" s="1">
-        <v>45777</v>
+        <v>45806</v>
       </c>
       <c r="T92" s="1">
-        <v>45715</v>
+        <v>45756</v>
       </c>
       <c r="U92" s="1">
-        <v>45712</v>
+        <v>45807</v>
+      </c>
+      <c r="V92" s="1">
+        <v>45789</v>
       </c>
       <c r="W92" s="1">
-        <v>45749</v>
+        <v>45757</v>
       </c>
       <c r="X92" s="2">
         <v>0</v>
@@ -6844,43 +6851,37 @@
         <v>45808</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F93" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G93">
-        <v>8000</v>
+        <v>2604</v>
       </c>
       <c r="H93">
-        <v>10000</v>
-      </c>
-      <c r="I93">
-        <v>5000</v>
+        <v>13522</v>
       </c>
       <c r="J93" t="s">
         <v>28</v>
       </c>
       <c r="K93" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L93" t="s">
         <v>30</v>
       </c>
       <c r="M93" t="s">
-        <v>266</v>
-      </c>
-      <c r="N93" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O93">
         <v>90113131698</v>
@@ -6889,22 +6890,16 @@
         <v>32</v>
       </c>
       <c r="Q93" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="S93" s="1">
-        <v>45806</v>
+        <v>45869</v>
       </c>
       <c r="T93" s="1">
-        <v>45756</v>
-      </c>
-      <c r="U93" s="1">
-        <v>45807</v>
-      </c>
-      <c r="V93" s="1">
-        <v>45789</v>
+        <v>45757</v>
       </c>
       <c r="W93" s="1">
-        <v>45757</v>
+        <v>45815</v>
       </c>
       <c r="X93" s="2">
         <v>0</v>
@@ -6915,37 +6910,31 @@
         <v>45808</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94">
-        <v>2604</v>
-      </c>
-      <c r="H94">
-        <v>13522</v>
+        <v>35</v>
       </c>
       <c r="J94" t="s">
         <v>28</v>
       </c>
       <c r="K94" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="L94" t="s">
         <v>30</v>
       </c>
       <c r="M94" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="O94">
         <v>90113131698</v>
@@ -6954,16 +6943,13 @@
         <v>32</v>
       </c>
       <c r="Q94" t="s">
-        <v>170</v>
-      </c>
-      <c r="S94" s="1">
-        <v>45869</v>
+        <v>38</v>
       </c>
       <c r="T94" s="1">
-        <v>45757</v>
+        <v>45664</v>
       </c>
       <c r="W94" s="1">
-        <v>45815</v>
+        <v>45717</v>
       </c>
       <c r="X94" s="2">
         <v>0</v>
@@ -6974,19 +6960,25 @@
         <v>45808</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E95" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="G95">
+        <v>11568</v>
+      </c>
+      <c r="H95">
+        <v>53295</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -6998,7 +6990,7 @@
         <v>30</v>
       </c>
       <c r="M95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O95">
         <v>90113131698</v>
@@ -7007,84 +6999,28 @@
         <v>32</v>
       </c>
       <c r="Q95" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="S95" s="1">
+        <v>45838</v>
       </c>
       <c r="T95" s="1">
-        <v>45664</v>
+        <v>45814</v>
+      </c>
+      <c r="U95" s="1">
+        <v>45838</v>
       </c>
       <c r="W95" s="1">
-        <v>45717</v>
+        <v>45815</v>
       </c>
       <c r="X95" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>45808</v>
-      </c>
-      <c r="B96" t="s">
-        <v>222</v>
-      </c>
-      <c r="C96" t="s">
-        <v>223</v>
-      </c>
-      <c r="D96" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" t="s">
-        <v>59</v>
-      </c>
-      <c r="F96" t="s">
-        <v>60</v>
-      </c>
-      <c r="G96">
-        <v>11568</v>
-      </c>
-      <c r="H96">
-        <v>53295</v>
-      </c>
-      <c r="J96" t="s">
-        <v>28</v>
-      </c>
-      <c r="K96" t="s">
-        <v>29</v>
-      </c>
-      <c r="L96" t="s">
-        <v>30</v>
-      </c>
-      <c r="M96" t="s">
-        <v>266</v>
-      </c>
-      <c r="O96">
-        <v>90113131698</v>
-      </c>
-      <c r="P96" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>62</v>
-      </c>
-      <c r="S96" s="1">
-        <v>45838</v>
-      </c>
-      <c r="T96" s="1">
-        <v>45814</v>
-      </c>
-      <c r="U96" s="1">
-        <v>45838</v>
-      </c>
-      <c r="W96" s="1">
-        <v>45815</v>
-      </c>
-      <c r="X96" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:X96" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X96">
-      <sortCondition ref="C1:C96"/>
+  <autoFilter ref="A1:X95" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X95">
+      <sortCondition ref="C1:C95"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
